--- a/config_1.26/game_module_config.xlsx
+++ b/config_1.26/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="979">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4109,9 +4109,6 @@
     <t>act_ty_collect_words</t>
   </si>
   <si>
-    <t>SYS_JBPManager</t>
-  </si>
-  <si>
     <t>sys_jbp</t>
   </si>
   <si>
@@ -4141,6 +4138,66 @@
   </si>
   <si>
     <t>Act_Ty_Collect_WordsManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_015_YYBJSJManager</t>
+  </si>
+  <si>
+    <t>赢一把就睡觉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2号</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_JBPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_QJD1Manager</t>
+  </si>
+  <si>
+    <t>疯狂敲金蛋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1号</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_041_yybjsj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_fkqjd</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4339,7 +4396,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4461,6 +4518,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4740,13 +4803,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I316"/>
+  <dimension ref="A1:I318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C290" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E310" sqref="E310"/>
+      <selection pane="bottomRight" activeCell="B318" sqref="B318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12775,10 +12838,10 @@
         <v>964</v>
       </c>
       <c r="C315" s="15" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D315" s="20" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E315" s="17">
         <v>1</v>
@@ -12790,7 +12853,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="17.25">
@@ -12798,13 +12861,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="34" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C316" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D316" s="34" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
       <c r="E316" s="17">
         <v>1</v>
@@ -12817,6 +12880,60 @@
       </c>
       <c r="I316" s="19" t="s">
         <v>647</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="16.5">
+      <c r="A317" s="16">
+        <v>316</v>
+      </c>
+      <c r="B317" s="28" t="s">
+        <v>977</v>
+      </c>
+      <c r="C317" s="26" t="s">
+        <v>971</v>
+      </c>
+      <c r="D317" s="28" t="s">
+        <v>970</v>
+      </c>
+      <c r="E317" s="27">
+        <v>1</v>
+      </c>
+      <c r="F317" s="27">
+        <v>1</v>
+      </c>
+      <c r="G317" s="27">
+        <v>1</v>
+      </c>
+      <c r="H317" s="27"/>
+      <c r="I317" s="41" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="17.25">
+      <c r="A318" s="16">
+        <v>317</v>
+      </c>
+      <c r="B318" s="42" t="s">
+        <v>978</v>
+      </c>
+      <c r="C318" s="26" t="s">
+        <v>975</v>
+      </c>
+      <c r="D318" s="42" t="s">
+        <v>974</v>
+      </c>
+      <c r="E318" s="27">
+        <v>1</v>
+      </c>
+      <c r="F318" s="27">
+        <v>1</v>
+      </c>
+      <c r="G318" s="27">
+        <v>1</v>
+      </c>
+      <c r="H318" s="27"/>
+      <c r="I318" s="26" t="s">
+        <v>976</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.26/game_module_config.xlsx
+++ b/config_1.26/game_module_config.xlsx
@@ -4023,10 +4023,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_jzsjb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_039_ty_by_drop</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4198,6 +4194,10 @@
   </si>
   <si>
     <t>act_ty_fkqjd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_sjb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4806,10 +4806,10 @@
   <dimension ref="A1:I318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C290" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C293" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B318" sqref="B318"/>
+      <selection pane="bottomRight" activeCell="B308" sqref="B308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12601,10 +12601,10 @@
         <v>949</v>
       </c>
       <c r="C306" s="26" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D306" s="28" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E306" s="27">
         <v>1</v>
@@ -12617,7 +12617,7 @@
       </c>
       <c r="H306" s="27"/>
       <c r="I306" s="26" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12625,10 +12625,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="28" t="s">
-        <v>950</v>
+        <v>978</v>
       </c>
       <c r="C307" s="26" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D307" s="28" t="s">
         <v>924</v>
@@ -12644,7 +12644,7 @@
       </c>
       <c r="H307" s="27"/>
       <c r="I307" s="26" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
@@ -12652,10 +12652,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="30" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D308" s="30" t="s">
         <v>925</v>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="H312" s="17"/>
       <c r="I312" s="15" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12786,14 +12786,14 @@
         <v>312</v>
       </c>
       <c r="B313" s="18" t="s">
+        <v>953</v>
+      </c>
+      <c r="C313" s="15" t="s">
+        <v>952</v>
+      </c>
+      <c r="D313" s="18" t="s">
         <v>954</v>
       </c>
-      <c r="C313" s="15" t="s">
-        <v>953</v>
-      </c>
-      <c r="D313" s="18" t="s">
-        <v>955</v>
-      </c>
       <c r="E313" s="17">
         <v>1</v>
       </c>
@@ -12804,7 +12804,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="15" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12812,13 +12812,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="18" t="s">
+        <v>959</v>
+      </c>
+      <c r="C314" s="15" t="s">
         <v>960</v>
       </c>
-      <c r="C314" s="15" t="s">
+      <c r="D314" s="18" t="s">
         <v>961</v>
-      </c>
-      <c r="D314" s="18" t="s">
-        <v>962</v>
       </c>
       <c r="E314" s="17">
         <v>0</v>
@@ -12835,13 +12835,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="34" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C315" s="15" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D315" s="20" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E315" s="17">
         <v>1</v>
@@ -12853,7 +12853,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="9" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="17.25">
@@ -12861,13 +12861,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="34" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C316" s="15" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D316" s="34" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E316" s="17">
         <v>1</v>
@@ -12887,13 +12887,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="28" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C317" s="26" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D317" s="28" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E317" s="27">
         <v>1</v>
@@ -12906,7 +12906,7 @@
       </c>
       <c r="H317" s="27"/>
       <c r="I317" s="41" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="17.25">
@@ -12914,13 +12914,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="42" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C318" s="26" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D318" s="42" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E318" s="27">
         <v>1</v>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="H318" s="27"/>
       <c r="I318" s="26" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.26/game_module_config.xlsx
+++ b/config_1.26/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="983">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4197,7 +4197,22 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_sjb</t>
+    <t>act_039_ty_sjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_sjb_style/act_001_ygbd</t>
+  </si>
+  <si>
+    <t>阳光榜单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_sjb_style/act_002_bzphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹排行榜</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4803,13 +4818,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I318"/>
+  <dimension ref="A1:I320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C293" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C299" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B308" sqref="B308"/>
+      <selection pane="bottomRight" activeCell="F320" sqref="F320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12933,6 +12948,56 @@
       </c>
       <c r="H318" s="27"/>
       <c r="I318" s="26" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" ht="16.5">
+      <c r="A319" s="16">
+        <v>318</v>
+      </c>
+      <c r="B319" s="28" t="s">
+        <v>979</v>
+      </c>
+      <c r="C319" s="26" t="s">
+        <v>980</v>
+      </c>
+      <c r="D319" s="27"/>
+      <c r="E319" s="27">
+        <v>1</v>
+      </c>
+      <c r="F319" s="27">
+        <v>1</v>
+      </c>
+      <c r="G319" s="27">
+        <v>1</v>
+      </c>
+      <c r="H319" s="27"/>
+      <c r="I319" s="26" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" ht="16.5">
+      <c r="A320" s="16">
+        <v>319</v>
+      </c>
+      <c r="B320" s="28" t="s">
+        <v>981</v>
+      </c>
+      <c r="C320" s="26" t="s">
+        <v>982</v>
+      </c>
+      <c r="D320" s="27"/>
+      <c r="E320" s="27">
+        <v>1</v>
+      </c>
+      <c r="F320" s="27">
+        <v>1</v>
+      </c>
+      <c r="G320" s="27">
+        <v>1</v>
+      </c>
+      <c r="H320" s="27"/>
+      <c r="I320" s="26" t="s">
         <v>975</v>
       </c>
     </row>

--- a/config_1.26/game_module_config.xlsx
+++ b/config_1.26/game_module_config.xlsx
@@ -3158,14 +3158,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>GameComAct1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameComAct1Manager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>通用活动模板1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4213,6 +4205,14 @@
   </si>
   <si>
     <t>爆竹排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityTaskManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4821,10 +4821,10 @@
   <dimension ref="A1:I320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C299" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C242" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F320" sqref="F320"/>
+      <selection pane="bottomRight" activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5516,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5">
@@ -10790,7 +10790,7 @@
         <v>668</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>669</v>
@@ -11206,7 +11206,7 @@
         <v>735</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>736</v>
@@ -11232,7 +11232,7 @@
         <v>740</v>
       </c>
       <c r="C253" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>741</v>
@@ -11255,13 +11255,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="31" t="s">
+        <v>981</v>
+      </c>
+      <c r="C254" s="32" t="s">
         <v>742</v>
       </c>
-      <c r="C254" s="32" t="s">
-        <v>744</v>
-      </c>
       <c r="D254" s="31" t="s">
-        <v>743</v>
+        <v>982</v>
       </c>
       <c r="E254" s="32">
         <v>1</v>
@@ -11282,25 +11282,25 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="D255" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="C255" s="9" t="s">
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="I255" s="9" t="s">
         <v>748</v>
-      </c>
-      <c r="D255" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>1</v>
-      </c>
-      <c r="I255" s="9" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="16.5">
@@ -11308,25 +11308,25 @@
         <v>255</v>
       </c>
       <c r="B256" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D256" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="C256" s="9" t="s">
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="I256" s="9" t="s">
         <v>752</v>
-      </c>
-      <c r="D256" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256">
-        <v>1</v>
-      </c>
-      <c r="G256">
-        <v>1</v>
-      </c>
-      <c r="I256" s="9" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="27" customFormat="1" ht="16.5">
@@ -11334,13 +11334,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="26" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C257" s="26" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D257" s="26" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E257" s="27">
         <v>1</v>
@@ -11352,7 +11352,7 @@
         <v>1</v>
       </c>
       <c r="I257" s="22" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11360,13 +11360,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D258" s="15" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E258" s="17">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11386,14 +11386,14 @@
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="C259" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="D259" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="C259" s="15" t="s">
-        <v>762</v>
-      </c>
-      <c r="D259" s="15" t="s">
-        <v>763</v>
-      </c>
       <c r="E259" s="17">
         <v>0</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>1</v>
       </c>
       <c r="I259" s="15" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11412,25 +11412,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="C260" s="15" t="s">
+        <v>763</v>
+      </c>
+      <c r="D260" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="E260" s="17">
+        <v>1</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="15" t="s">
         <v>765</v>
-      </c>
-      <c r="D260" s="15" t="s">
-        <v>766</v>
-      </c>
-      <c r="E260" s="17">
-        <v>1</v>
-      </c>
-      <c r="F260" s="17">
-        <v>1</v>
-      </c>
-      <c r="G260" s="17">
-        <v>1</v>
-      </c>
-      <c r="I260" s="15" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11438,25 +11438,25 @@
         <v>260</v>
       </c>
       <c r="B261" s="15" t="s">
+        <v>766</v>
+      </c>
+      <c r="C261" s="15" t="s">
+        <v>767</v>
+      </c>
+      <c r="D261" s="15" t="s">
         <v>768</v>
       </c>
-      <c r="C261" s="15" t="s">
+      <c r="E261" s="17">
+        <v>0</v>
+      </c>
+      <c r="F261" s="17">
+        <v>1</v>
+      </c>
+      <c r="G261" s="17">
+        <v>1</v>
+      </c>
+      <c r="I261" s="15" t="s">
         <v>769</v>
-      </c>
-      <c r="D261" s="15" t="s">
-        <v>770</v>
-      </c>
-      <c r="E261" s="17">
-        <v>0</v>
-      </c>
-      <c r="F261" s="17">
-        <v>1</v>
-      </c>
-      <c r="G261" s="17">
-        <v>1</v>
-      </c>
-      <c r="I261" s="15" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
@@ -11464,25 +11464,25 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>770</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="D262" t="s">
+        <v>771</v>
+      </c>
+      <c r="E262" s="5">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="I262" s="12" t="s">
         <v>772</v>
-      </c>
-      <c r="C262" s="9" t="s">
-        <v>775</v>
-      </c>
-      <c r="D262" t="s">
-        <v>773</v>
-      </c>
-      <c r="E262" s="5">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-      <c r="I262" s="12" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.5">
@@ -11490,13 +11490,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="D263" s="15" t="s">
         <v>776</v>
-      </c>
-      <c r="C263" s="9" t="s">
-        <v>777</v>
-      </c>
-      <c r="D263" s="15" t="s">
-        <v>778</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -11516,25 +11516,25 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="C264" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="D264" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="E264" s="17">
+        <v>0</v>
+      </c>
+      <c r="F264" s="17">
+        <v>0</v>
+      </c>
+      <c r="G264" s="17">
+        <v>0</v>
+      </c>
+      <c r="I264" s="15" t="s">
         <v>780</v>
-      </c>
-      <c r="D264" s="15" t="s">
-        <v>781</v>
-      </c>
-      <c r="E264" s="17">
-        <v>0</v>
-      </c>
-      <c r="F264" s="17">
-        <v>0</v>
-      </c>
-      <c r="G264" s="17">
-        <v>0</v>
-      </c>
-      <c r="I264" s="15" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11542,13 +11542,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
+        <v>781</v>
+      </c>
+      <c r="C265" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="D265" s="15" t="s">
         <v>783</v>
-      </c>
-      <c r="C265" s="15" t="s">
-        <v>784</v>
-      </c>
-      <c r="D265" s="15" t="s">
-        <v>785</v>
       </c>
       <c r="E265" s="17">
         <v>0</v>
@@ -11568,25 +11568,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="C266" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="D266" s="15" t="s">
         <v>786</v>
       </c>
-      <c r="C266" s="15" t="s">
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="17" t="s">
         <v>787</v>
-      </c>
-      <c r="D266" s="15" t="s">
-        <v>788</v>
-      </c>
-      <c r="E266" s="17">
-        <v>0</v>
-      </c>
-      <c r="F266" s="17">
-        <v>0</v>
-      </c>
-      <c r="G266" s="17">
-        <v>0</v>
-      </c>
-      <c r="I266" s="17" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11594,25 +11594,25 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
+        <v>788</v>
+      </c>
+      <c r="C267" s="15" t="s">
         <v>790</v>
       </c>
-      <c r="C267" s="15" t="s">
-        <v>792</v>
-      </c>
       <c r="D267" s="18" t="s">
+        <v>789</v>
+      </c>
+      <c r="E267" s="17">
+        <v>0</v>
+      </c>
+      <c r="F267" s="17">
+        <v>0</v>
+      </c>
+      <c r="G267" s="17">
+        <v>0</v>
+      </c>
+      <c r="I267" s="19" t="s">
         <v>791</v>
-      </c>
-      <c r="E267" s="17">
-        <v>0</v>
-      </c>
-      <c r="F267" s="17">
-        <v>0</v>
-      </c>
-      <c r="G267" s="17">
-        <v>0</v>
-      </c>
-      <c r="I267" s="19" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11620,13 +11620,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="C268" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="C268" s="15" t="s">
-        <v>796</v>
-      </c>
       <c r="D268" s="18" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E268" s="17">
         <v>0</v>
@@ -11646,13 +11646,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E269" s="17">
         <v>1</v>
@@ -11672,13 +11672,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C270" s="15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D270" s="18" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E270" s="17">
         <v>0</v>
@@ -11699,13 +11699,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="D271" s="18" t="s">
         <v>803</v>
-      </c>
-      <c r="C271" s="15" t="s">
-        <v>804</v>
-      </c>
-      <c r="D271" s="18" t="s">
-        <v>805</v>
       </c>
       <c r="E271" s="17">
         <v>0</v>
@@ -11726,13 +11726,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="C272" s="15" t="s">
         <v>807</v>
       </c>
-      <c r="C272" s="15" t="s">
-        <v>809</v>
-      </c>
       <c r="D272" s="18" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E272" s="17">
         <v>1</v>
@@ -11745,7 +11745,7 @@
       </c>
       <c r="H272" s="17"/>
       <c r="I272" s="19" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5">
@@ -11753,13 +11753,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
+        <v>809</v>
+      </c>
+      <c r="C273" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="D273" s="18" t="s">
         <v>811</v>
-      </c>
-      <c r="C273" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D273" s="18" t="s">
-        <v>813</v>
       </c>
       <c r="E273" s="17">
         <v>1</v>
@@ -11772,7 +11772,7 @@
       </c>
       <c r="H273" s="17"/>
       <c r="I273" s="19" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5">
@@ -11780,13 +11780,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="C274" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="C274" s="15" t="s">
-        <v>817</v>
-      </c>
       <c r="D274" s="18" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E274" s="17">
         <v>1</v>
@@ -11799,7 +11799,7 @@
       </c>
       <c r="H274" s="17"/>
       <c r="I274" s="19" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="16.5">
@@ -11807,13 +11807,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D275" s="18" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E275" s="17">
         <v>0</v>
@@ -11826,7 +11826,7 @@
       </c>
       <c r="H275" s="17"/>
       <c r="I275" s="19" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="21" customFormat="1" ht="17.25">
@@ -11834,13 +11834,13 @@
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C276" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="D276" s="18" t="s">
         <v>822</v>
-      </c>
-      <c r="D276" s="18" t="s">
-        <v>824</v>
       </c>
       <c r="E276" s="17">
         <v>0</v>
@@ -11853,7 +11853,7 @@
       </c>
       <c r="H276" s="17"/>
       <c r="I276" s="29" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="16.5">
@@ -11861,22 +11861,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
+        <v>823</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="I277" s="19" t="s">
         <v>825</v>
-      </c>
-      <c r="C277" s="15" t="s">
-        <v>826</v>
-      </c>
-      <c r="E277">
-        <v>0</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-      <c r="I277" s="19" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="278" spans="1:9" s="17" customFormat="1" ht="15.75" customHeight="1">
@@ -11884,13 +11884,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D278" s="35" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E278" s="15">
         <v>0</v>
@@ -11903,7 +11903,7 @@
       </c>
       <c r="H278" s="15"/>
       <c r="I278" s="15" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -11911,13 +11911,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D279" s="18" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -11929,7 +11929,7 @@
         <v>1</v>
       </c>
       <c r="I279" s="19" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -11937,22 +11937,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C280" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="19" t="s">
         <v>832</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="19" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -11960,13 +11960,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11978,7 +11978,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -11986,13 +11986,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="C282" s="15" t="s">
         <v>839</v>
       </c>
-      <c r="C282" s="15" t="s">
-        <v>841</v>
-      </c>
       <c r="D282" s="18" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -12004,7 +12004,7 @@
         <v>1</v>
       </c>
       <c r="I282" s="19" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
@@ -12012,13 +12012,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C283" s="15" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D283" s="18" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -12030,7 +12030,7 @@
         <v>0</v>
       </c>
       <c r="I283" s="19" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="39" customFormat="1" ht="17.25" customHeight="1">
@@ -12038,25 +12038,25 @@
         <v>283</v>
       </c>
       <c r="B284" s="38" t="s">
+        <v>843</v>
+      </c>
+      <c r="C284" s="37" t="s">
+        <v>844</v>
+      </c>
+      <c r="D284" s="38" t="s">
         <v>845</v>
       </c>
-      <c r="C284" s="37" t="s">
+      <c r="E284" s="39">
+        <v>1</v>
+      </c>
+      <c r="F284" s="39">
+        <v>1</v>
+      </c>
+      <c r="G284" s="39">
+        <v>1</v>
+      </c>
+      <c r="I284" s="40" t="s">
         <v>846</v>
-      </c>
-      <c r="D284" s="38" t="s">
-        <v>847</v>
-      </c>
-      <c r="E284" s="39">
-        <v>1</v>
-      </c>
-      <c r="F284" s="39">
-        <v>1</v>
-      </c>
-      <c r="G284" s="39">
-        <v>1</v>
-      </c>
-      <c r="I284" s="40" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12064,13 +12064,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="38" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C285" s="37" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D285" s="38" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E285" s="39">
         <v>1</v>
@@ -12090,25 +12090,25 @@
         <v>285</v>
       </c>
       <c r="B286" s="15" t="s">
+        <v>854</v>
+      </c>
+      <c r="C286" s="15" t="s">
+        <v>855</v>
+      </c>
+      <c r="D286" s="18" t="s">
         <v>856</v>
       </c>
-      <c r="C286" s="15" t="s">
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="I286" s="19" t="s">
         <v>857</v>
-      </c>
-      <c r="D286" s="18" t="s">
-        <v>858</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286">
-        <v>0</v>
-      </c>
-      <c r="I286" s="19" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="287" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12116,13 +12116,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="37" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C287" s="37" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D287" s="38" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E287" s="39">
         <v>1</v>
@@ -12142,25 +12142,25 @@
         <v>287</v>
       </c>
       <c r="B288" s="37" t="s">
+        <v>861</v>
+      </c>
+      <c r="C288" s="37" t="s">
+        <v>862</v>
+      </c>
+      <c r="D288" s="38" t="s">
         <v>863</v>
       </c>
-      <c r="C288" s="37" t="s">
+      <c r="E288" s="39">
+        <v>1</v>
+      </c>
+      <c r="F288" s="39">
+        <v>1</v>
+      </c>
+      <c r="G288" s="39">
+        <v>1</v>
+      </c>
+      <c r="I288" s="40" t="s">
         <v>864</v>
-      </c>
-      <c r="D288" s="38" t="s">
-        <v>865</v>
-      </c>
-      <c r="E288" s="39">
-        <v>1</v>
-      </c>
-      <c r="F288" s="39">
-        <v>1</v>
-      </c>
-      <c r="G288" s="39">
-        <v>1</v>
-      </c>
-      <c r="I288" s="40" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="21" customFormat="1" ht="16.5">
@@ -12168,13 +12168,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="15" t="s">
+        <v>865</v>
+      </c>
+      <c r="C289" s="15" t="s">
         <v>867</v>
       </c>
-      <c r="C289" s="15" t="s">
-        <v>869</v>
-      </c>
       <c r="D289" s="15" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E289" s="17">
         <v>0</v>
@@ -12187,7 +12187,7 @@
       </c>
       <c r="H289" s="17"/>
       <c r="I289" s="15" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="290" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12195,25 +12195,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="37" t="s">
+        <v>869</v>
+      </c>
+      <c r="C290" s="37" t="s">
+        <v>870</v>
+      </c>
+      <c r="D290" s="38" t="s">
         <v>871</v>
       </c>
-      <c r="C290" s="37" t="s">
+      <c r="E290" s="39">
+        <v>1</v>
+      </c>
+      <c r="F290" s="39">
+        <v>1</v>
+      </c>
+      <c r="G290" s="39">
+        <v>1</v>
+      </c>
+      <c r="I290" s="40" t="s">
         <v>872</v>
-      </c>
-      <c r="D290" s="38" t="s">
-        <v>873</v>
-      </c>
-      <c r="E290" s="39">
-        <v>1</v>
-      </c>
-      <c r="F290" s="39">
-        <v>1</v>
-      </c>
-      <c r="G290" s="39">
-        <v>1</v>
-      </c>
-      <c r="I290" s="40" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="291" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12221,25 +12221,25 @@
         <v>290</v>
       </c>
       <c r="B291" s="38" t="s">
+        <v>873</v>
+      </c>
+      <c r="C291" s="37" t="s">
+        <v>874</v>
+      </c>
+      <c r="D291" s="38" t="s">
         <v>875</v>
       </c>
-      <c r="C291" s="37" t="s">
+      <c r="E291" s="39">
+        <v>1</v>
+      </c>
+      <c r="F291" s="39">
+        <v>1</v>
+      </c>
+      <c r="G291" s="39">
+        <v>1</v>
+      </c>
+      <c r="I291" s="40" t="s">
         <v>876</v>
-      </c>
-      <c r="D291" s="38" t="s">
-        <v>877</v>
-      </c>
-      <c r="E291" s="39">
-        <v>1</v>
-      </c>
-      <c r="F291" s="39">
-        <v>1</v>
-      </c>
-      <c r="G291" s="39">
-        <v>1</v>
-      </c>
-      <c r="I291" s="40" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="292" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12247,13 +12247,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="38" t="s">
+        <v>877</v>
+      </c>
+      <c r="C292" s="37" t="s">
+        <v>878</v>
+      </c>
+      <c r="D292" s="38" t="s">
         <v>879</v>
-      </c>
-      <c r="C292" s="37" t="s">
-        <v>880</v>
-      </c>
-      <c r="D292" s="38" t="s">
-        <v>881</v>
       </c>
       <c r="E292" s="39">
         <v>1</v>
@@ -12273,13 +12273,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="38" t="s">
+        <v>880</v>
+      </c>
+      <c r="C293" s="37" t="s">
+        <v>885</v>
+      </c>
+      <c r="D293" s="38" t="s">
         <v>882</v>
-      </c>
-      <c r="C293" s="37" t="s">
-        <v>887</v>
-      </c>
-      <c r="D293" s="38" t="s">
-        <v>884</v>
       </c>
       <c r="E293" s="39">
         <v>1</v>
@@ -12299,14 +12299,14 @@
         <v>293</v>
       </c>
       <c r="B294" s="38" t="s">
+        <v>881</v>
+      </c>
+      <c r="C294" s="37" t="s">
+        <v>886</v>
+      </c>
+      <c r="D294" s="38" t="s">
         <v>883</v>
       </c>
-      <c r="C294" s="37" t="s">
-        <v>888</v>
-      </c>
-      <c r="D294" s="38" t="s">
-        <v>885</v>
-      </c>
       <c r="E294" s="39">
         <v>1</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>1</v>
       </c>
       <c r="I294" s="40" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="295" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12325,13 +12325,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="38" t="s">
+        <v>887</v>
+      </c>
+      <c r="C295" s="37" t="s">
+        <v>888</v>
+      </c>
+      <c r="D295" s="38" t="s">
         <v>889</v>
-      </c>
-      <c r="C295" s="37" t="s">
-        <v>890</v>
-      </c>
-      <c r="D295" s="38" t="s">
-        <v>891</v>
       </c>
       <c r="E295" s="39">
         <v>1</v>
@@ -12351,13 +12351,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="38" t="s">
+        <v>890</v>
+      </c>
+      <c r="C296" s="37" t="s">
+        <v>891</v>
+      </c>
+      <c r="D296" s="38" t="s">
         <v>892</v>
-      </c>
-      <c r="C296" s="37" t="s">
-        <v>893</v>
-      </c>
-      <c r="D296" s="38" t="s">
-        <v>894</v>
       </c>
       <c r="E296" s="39">
         <v>1</v>
@@ -12377,14 +12377,14 @@
         <v>296</v>
       </c>
       <c r="B297" s="20" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C297" s="15" t="s">
+        <v>894</v>
+      </c>
+      <c r="D297" s="20" t="s">
         <v>896</v>
       </c>
-      <c r="D297" s="20" t="s">
-        <v>898</v>
-      </c>
       <c r="E297">
         <v>0</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>0</v>
       </c>
       <c r="I297" s="15" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="16.5">
@@ -12403,14 +12403,14 @@
         <v>297</v>
       </c>
       <c r="B298" s="20" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C298" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="D298" s="20" t="s">
         <v>897</v>
       </c>
-      <c r="D298" s="20" t="s">
-        <v>899</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -12421,7 +12421,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="15" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="16.5">
@@ -12429,14 +12429,14 @@
         <v>298</v>
       </c>
       <c r="B299" s="20" t="s">
+        <v>899</v>
+      </c>
+      <c r="C299" s="15" t="s">
+        <v>900</v>
+      </c>
+      <c r="D299" s="20" t="s">
         <v>901</v>
       </c>
-      <c r="C299" s="15" t="s">
-        <v>902</v>
-      </c>
-      <c r="D299" s="20" t="s">
-        <v>903</v>
-      </c>
       <c r="E299">
         <v>0</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>0</v>
       </c>
       <c r="I299" s="15" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="300" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12455,25 +12455,25 @@
         <v>299</v>
       </c>
       <c r="B300" s="38" t="s">
+        <v>902</v>
+      </c>
+      <c r="C300" s="37" t="s">
+        <v>903</v>
+      </c>
+      <c r="D300" s="38" t="s">
         <v>904</v>
       </c>
-      <c r="C300" s="37" t="s">
+      <c r="E300" s="39">
+        <v>1</v>
+      </c>
+      <c r="F300" s="39">
+        <v>1</v>
+      </c>
+      <c r="G300" s="39">
+        <v>1</v>
+      </c>
+      <c r="I300" s="40" t="s">
         <v>905</v>
-      </c>
-      <c r="D300" s="38" t="s">
-        <v>906</v>
-      </c>
-      <c r="E300" s="39">
-        <v>1</v>
-      </c>
-      <c r="F300" s="39">
-        <v>1</v>
-      </c>
-      <c r="G300" s="39">
-        <v>1</v>
-      </c>
-      <c r="I300" s="40" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12481,13 +12481,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="C301" s="15" t="s">
+        <v>910</v>
+      </c>
+      <c r="D301" s="18" t="s">
         <v>911</v>
-      </c>
-      <c r="C301" s="15" t="s">
-        <v>912</v>
-      </c>
-      <c r="D301" s="18" t="s">
-        <v>913</v>
       </c>
       <c r="E301" s="17">
         <v>0</v>
@@ -12500,7 +12500,7 @@
       </c>
       <c r="H301" s="17"/>
       <c r="I301" s="19" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="302" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12508,13 +12508,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="18" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C302" s="15" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D302" s="18" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E302" s="17">
         <v>0</v>
@@ -12527,7 +12527,7 @@
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="19" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="303" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12535,10 +12535,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="28" t="s">
+        <v>935</v>
+      </c>
+      <c r="C303" s="26" t="s">
         <v>937</v>
-      </c>
-      <c r="C303" s="26" t="s">
-        <v>939</v>
       </c>
       <c r="D303" s="27"/>
       <c r="E303" s="27">
@@ -12552,7 +12552,7 @@
       </c>
       <c r="H303" s="27"/>
       <c r="I303" s="26" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12560,13 +12560,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="18" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C304" s="15" t="s">
+        <v>916</v>
+      </c>
+      <c r="D304" s="18" t="s">
         <v>918</v>
-      </c>
-      <c r="D304" s="18" t="s">
-        <v>920</v>
       </c>
       <c r="E304" s="17">
         <v>0</v>
@@ -12579,7 +12579,7 @@
       </c>
       <c r="H304" s="17"/>
       <c r="I304" s="19" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12587,25 +12587,25 @@
         <v>304</v>
       </c>
       <c r="B305" s="38" t="s">
+        <v>919</v>
+      </c>
+      <c r="C305" s="37" t="s">
+        <v>925</v>
+      </c>
+      <c r="D305" s="38" t="s">
+        <v>920</v>
+      </c>
+      <c r="E305" s="39">
+        <v>1</v>
+      </c>
+      <c r="F305" s="39">
+        <v>1</v>
+      </c>
+      <c r="G305" s="39">
+        <v>1</v>
+      </c>
+      <c r="I305" s="40" t="s">
         <v>921</v>
-      </c>
-      <c r="C305" s="37" t="s">
-        <v>927</v>
-      </c>
-      <c r="D305" s="38" t="s">
-        <v>922</v>
-      </c>
-      <c r="E305" s="39">
-        <v>1</v>
-      </c>
-      <c r="F305" s="39">
-        <v>1</v>
-      </c>
-      <c r="G305" s="39">
-        <v>1</v>
-      </c>
-      <c r="I305" s="40" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="21" customFormat="1" ht="16.5">
@@ -12613,13 +12613,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="28" t="s">
+        <v>947</v>
+      </c>
+      <c r="C306" s="26" t="s">
+        <v>953</v>
+      </c>
+      <c r="D306" s="28" t="s">
         <v>949</v>
-      </c>
-      <c r="C306" s="26" t="s">
-        <v>955</v>
-      </c>
-      <c r="D306" s="28" t="s">
-        <v>951</v>
       </c>
       <c r="E306" s="27">
         <v>1</v>
@@ -12632,7 +12632,7 @@
       </c>
       <c r="H306" s="27"/>
       <c r="I306" s="26" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12640,13 +12640,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="28" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C307" s="26" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D307" s="28" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E307" s="27">
         <v>1</v>
@@ -12659,7 +12659,7 @@
       </c>
       <c r="H307" s="27"/>
       <c r="I307" s="26" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
@@ -12667,13 +12667,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="30" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D308" s="30" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E308" s="32">
         <v>1</v>
@@ -12694,13 +12694,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C309" s="17" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12713,7 +12713,7 @@
       </c>
       <c r="H309" s="17"/>
       <c r="I309" s="19" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="16.5">
@@ -12721,13 +12721,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C310" s="15" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D310" s="18" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E310" s="17">
         <v>0</v>
@@ -12740,7 +12740,7 @@
       </c>
       <c r="H310" s="17"/>
       <c r="I310" s="15" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12748,25 +12748,25 @@
         <v>310</v>
       </c>
       <c r="B311" s="38" t="s">
+        <v>941</v>
+      </c>
+      <c r="C311" s="37" t="s">
+        <v>942</v>
+      </c>
+      <c r="D311" s="38" t="s">
+        <v>940</v>
+      </c>
+      <c r="E311" s="39">
+        <v>1</v>
+      </c>
+      <c r="F311" s="39">
+        <v>1</v>
+      </c>
+      <c r="G311" s="39">
+        <v>1</v>
+      </c>
+      <c r="I311" s="37" t="s">
         <v>943</v>
-      </c>
-      <c r="C311" s="37" t="s">
-        <v>944</v>
-      </c>
-      <c r="D311" s="38" t="s">
-        <v>942</v>
-      </c>
-      <c r="E311" s="39">
-        <v>1</v>
-      </c>
-      <c r="F311" s="39">
-        <v>1</v>
-      </c>
-      <c r="G311" s="39">
-        <v>1</v>
-      </c>
-      <c r="I311" s="37" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16.5">
@@ -12774,13 +12774,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>944</v>
+      </c>
+      <c r="C312" s="15" t="s">
         <v>946</v>
       </c>
-      <c r="C312" s="15" t="s">
-        <v>948</v>
-      </c>
       <c r="D312" s="18" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E312" s="17">
         <v>1</v>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="H312" s="17"/>
       <c r="I312" s="15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12801,14 +12801,14 @@
         <v>312</v>
       </c>
       <c r="B313" s="18" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C313" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="D313" s="18" t="s">
         <v>952</v>
       </c>
-      <c r="D313" s="18" t="s">
-        <v>954</v>
-      </c>
       <c r="E313" s="17">
         <v>1</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="15" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12827,13 +12827,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C314" s="15" t="s">
+        <v>958</v>
+      </c>
+      <c r="D314" s="18" t="s">
         <v>959</v>
-      </c>
-      <c r="C314" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="D314" s="18" t="s">
-        <v>961</v>
       </c>
       <c r="E314" s="17">
         <v>0</v>
@@ -12850,25 +12850,25 @@
         <v>314</v>
       </c>
       <c r="B315" s="34" t="s">
+        <v>961</v>
+      </c>
+      <c r="C315" s="15" t="s">
         <v>963</v>
       </c>
-      <c r="C315" s="15" t="s">
+      <c r="D315" s="20" t="s">
+        <v>966</v>
+      </c>
+      <c r="E315" s="17">
+        <v>1</v>
+      </c>
+      <c r="F315" s="17">
+        <v>1</v>
+      </c>
+      <c r="G315" s="17">
+        <v>1</v>
+      </c>
+      <c r="I315" s="9" t="s">
         <v>965</v>
-      </c>
-      <c r="D315" s="20" t="s">
-        <v>968</v>
-      </c>
-      <c r="E315" s="17">
-        <v>1</v>
-      </c>
-      <c r="F315" s="17">
-        <v>1</v>
-      </c>
-      <c r="G315" s="17">
-        <v>1</v>
-      </c>
-      <c r="I315" s="9" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="17.25">
@@ -12876,13 +12876,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="34" t="s">
+        <v>962</v>
+      </c>
+      <c r="C316" s="15" t="s">
         <v>964</v>
       </c>
-      <c r="C316" s="15" t="s">
-        <v>966</v>
-      </c>
       <c r="D316" s="34" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E316" s="17">
         <v>1</v>
@@ -12902,13 +12902,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="28" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C317" s="26" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D317" s="28" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E317" s="27">
         <v>1</v>
@@ -12921,7 +12921,7 @@
       </c>
       <c r="H317" s="27"/>
       <c r="I317" s="41" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="17.25">
@@ -12929,13 +12929,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="42" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C318" s="26" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D318" s="42" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E318" s="27">
         <v>1</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="H318" s="27"/>
       <c r="I318" s="26" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
@@ -12956,10 +12956,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="28" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C319" s="26" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D319" s="27"/>
       <c r="E319" s="27">
@@ -12973,7 +12973,7 @@
       </c>
       <c r="H319" s="27"/>
       <c r="I319" s="26" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
@@ -12981,10 +12981,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="28" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C320" s="26" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D320" s="27"/>
       <c r="E320" s="27">
@@ -12998,7 +12998,7 @@
       </c>
       <c r="H320" s="27"/>
       <c r="I320" s="26" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.26/game_module_config.xlsx
+++ b/config_1.26/game_module_config.xlsx
@@ -4324,7 +4324,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4379,6 +4379,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4411,7 +4417,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4540,6 +4546,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4821,10 +4836,10 @@
   <dimension ref="A1:I320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C242" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C246" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D254" sqref="D254"/>
+      <selection pane="bottomRight" activeCell="A75" sqref="A75:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6765,29 +6780,29 @@
         <v>646</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.5">
-      <c r="A75" s="16">
+    <row r="75" spans="1:9" s="44" customFormat="1" ht="16.5">
+      <c r="A75" s="43">
         <v>74</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="43" t="s">
         <v>660</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="5">
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="I75" s="11" t="s">
+      <c r="E75" s="43">
+        <v>0</v>
+      </c>
+      <c r="F75" s="44">
+        <v>0</v>
+      </c>
+      <c r="G75" s="44">
+        <v>0</v>
+      </c>
+      <c r="I75" s="45" t="s">
         <v>648</v>
       </c>
     </row>
@@ -11264,13 +11279,13 @@
         <v>982</v>
       </c>
       <c r="E254" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G254" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254" s="32"/>
       <c r="I254" s="31" t="s">

--- a/config_1.26/game_module_config.xlsx
+++ b/config_1.26/game_module_config.xlsx
@@ -647,9 +647,6 @@
   </si>
   <si>
     <t>SYSXYManager</t>
-  </si>
-  <si>
-    <t>hall_activity</t>
   </si>
   <si>
     <t>系统：大厅活动</t>
@@ -4213,6 +4210,10 @@
   </si>
   <si>
     <t>ActivityTaskManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hall_activity</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4417,7 +4418,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4554,6 +4555,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4836,10 +4840,10 @@
   <dimension ref="A1:I320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C246" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A75" sqref="A75:XFD75"/>
+      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4869,7 +4873,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -4881,7 +4885,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
@@ -4907,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
@@ -4933,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
@@ -4959,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
@@ -4985,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
@@ -5011,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
@@ -5037,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
@@ -5063,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
@@ -5089,7 +5093,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
@@ -5115,7 +5119,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
@@ -5141,7 +5145,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
@@ -5167,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
@@ -5193,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -5219,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
@@ -5245,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
@@ -5271,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5">
@@ -5297,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5">
@@ -5323,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5">
@@ -5349,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5">
@@ -5375,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5">
@@ -5401,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5">
@@ -5427,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5">
@@ -5453,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5">
@@ -5479,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5">
@@ -5505,7 +5509,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5">
@@ -5531,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -5542,7 +5546,7 @@
         <v>82</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>83</v>
@@ -5557,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5">
@@ -5583,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5">
@@ -5609,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5">
@@ -5635,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5">
@@ -5661,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5">
@@ -5687,7 +5691,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5">
@@ -5713,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5">
@@ -5739,7 +5743,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5">
@@ -5765,7 +5769,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5">
@@ -5791,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5">
@@ -5817,7 +5821,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5">
@@ -5843,7 +5847,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5">
@@ -5869,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5">
@@ -5895,7 +5899,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5">
@@ -5921,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5">
@@ -5947,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5">
@@ -5973,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5">
@@ -5999,7 +6003,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5">
@@ -6025,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5">
@@ -6051,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5">
@@ -6077,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5">
@@ -6103,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5">
@@ -6114,7 +6118,7 @@
         <v>147</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>148</v>
@@ -6129,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5">
@@ -6155,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5">
@@ -6181,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5">
@@ -6205,7 +6209,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1">
@@ -6231,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5">
@@ -6239,7 +6243,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>160</v>
@@ -6257,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5">
@@ -6265,7 +6269,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>162</v>
@@ -6283,7 +6287,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5">
@@ -6309,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5">
@@ -6335,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5">
@@ -6361,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5">
@@ -6387,7 +6391,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5">
@@ -6413,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5">
@@ -6439,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5">
@@ -6465,7 +6469,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5">
@@ -6491,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5">
@@ -6517,7 +6521,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5">
@@ -6543,33 +6547,33 @@
         <v>0</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="16.5">
-      <c r="A66" s="16">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="44" customFormat="1" ht="16.5">
+      <c r="A66" s="43">
         <v>65</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="43" t="s">
+        <v>982</v>
+      </c>
+      <c r="C66" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="D66" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E66" s="5">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>646</v>
+      <c r="E66" s="43">
+        <v>0</v>
+      </c>
+      <c r="F66" s="44">
+        <v>0</v>
+      </c>
+      <c r="G66" s="44">
+        <v>0</v>
+      </c>
+      <c r="I66" s="46" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5">
@@ -6577,14 +6581,14 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="D67" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="E67" s="5">
         <v>1</v>
       </c>
@@ -6595,7 +6599,7 @@
         <v>1</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5">
@@ -6603,14 +6607,14 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>202</v>
-      </c>
       <c r="E68" s="5">
         <v>0</v>
       </c>
@@ -6621,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5">
@@ -6629,14 +6633,14 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="E69" s="5">
         <v>0</v>
       </c>
@@ -6647,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5">
@@ -6655,14 +6659,14 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="E70" s="5">
         <v>1</v>
       </c>
@@ -6673,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5">
@@ -6681,14 +6685,14 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="E71" s="5">
         <v>1</v>
       </c>
@@ -6699,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5">
@@ -6707,14 +6711,14 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="E72" s="5">
         <v>1</v>
       </c>
@@ -6725,7 +6729,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5">
@@ -6733,14 +6737,14 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="E73" s="5">
         <v>1</v>
       </c>
@@ -6751,7 +6755,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="16.5">
@@ -6759,14 +6763,14 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="E74" s="5">
         <v>1</v>
       </c>
@@ -6777,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="44" customFormat="1" ht="16.5">
@@ -6785,14 +6789,14 @@
         <v>74</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C75" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="D75" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="43" t="s">
-        <v>222</v>
-      </c>
       <c r="E75" s="43">
         <v>0</v>
       </c>
@@ -6803,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="45" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5">
@@ -6811,14 +6815,14 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="E76" s="5">
         <v>1</v>
       </c>
@@ -6829,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -6837,14 +6841,14 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="E77" s="5">
         <v>0</v>
       </c>
@@ -6855,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5">
@@ -6863,14 +6867,14 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="E78" s="5">
         <v>0</v>
       </c>
@@ -6881,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5">
@@ -6889,14 +6893,14 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="E79" s="5">
         <v>1</v>
       </c>
@@ -6907,7 +6911,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5">
@@ -6915,14 +6919,14 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>237</v>
-      </c>
       <c r="E80" s="5">
         <v>0</v>
       </c>
@@ -6933,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5">
@@ -6941,14 +6945,14 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="E81" s="5">
         <v>0</v>
       </c>
@@ -6959,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5">
@@ -6967,14 +6971,14 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>243</v>
-      </c>
       <c r="E82" s="5">
         <v>0</v>
       </c>
@@ -6985,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5">
@@ -6993,14 +6997,14 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>246</v>
-      </c>
       <c r="E83" s="5">
         <v>0</v>
       </c>
@@ -7011,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5">
@@ -7019,14 +7023,14 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>249</v>
-      </c>
       <c r="E84" s="5">
         <v>0</v>
       </c>
@@ -7037,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5">
@@ -7045,14 +7049,14 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>252</v>
-      </c>
       <c r="E85" s="5">
         <v>0</v>
       </c>
@@ -7063,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5">
@@ -7071,14 +7075,14 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>255</v>
-      </c>
       <c r="E86" s="5">
         <v>1</v>
       </c>
@@ -7089,7 +7093,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5">
@@ -7097,14 +7101,14 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="E87" s="5">
         <v>1</v>
       </c>
@@ -7115,7 +7119,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5">
@@ -7123,14 +7127,14 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="D88" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>261</v>
-      </c>
       <c r="E88" s="5">
         <v>1</v>
       </c>
@@ -7141,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5">
@@ -7149,14 +7153,14 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>264</v>
-      </c>
       <c r="E89" s="5">
         <v>1</v>
       </c>
@@ -7167,7 +7171,7 @@
         <v>1</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5">
@@ -7175,14 +7179,14 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="D90" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="E90" s="5">
         <v>0</v>
       </c>
@@ -7193,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5">
@@ -7201,14 +7205,14 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>270</v>
-      </c>
       <c r="E91" s="5">
         <v>1</v>
       </c>
@@ -7219,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5">
@@ -7227,14 +7231,14 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>273</v>
-      </c>
       <c r="E92" s="5">
         <v>0</v>
       </c>
@@ -7245,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5">
@@ -7253,14 +7257,14 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>276</v>
-      </c>
       <c r="E93" s="5">
         <v>1</v>
       </c>
@@ -7271,7 +7275,7 @@
         <v>1</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5">
@@ -7279,14 +7283,14 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>279</v>
-      </c>
       <c r="E94" s="5">
         <v>0</v>
       </c>
@@ -7297,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5">
@@ -7305,14 +7309,14 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>282</v>
-      </c>
       <c r="E95" s="5">
         <v>0</v>
       </c>
@@ -7323,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5">
@@ -7331,14 +7335,14 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>285</v>
-      </c>
       <c r="E96" s="5">
         <v>0</v>
       </c>
@@ -7349,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5">
@@ -7357,14 +7361,14 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>288</v>
-      </c>
       <c r="E97" s="5">
         <v>0</v>
       </c>
@@ -7375,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5">
@@ -7383,14 +7387,14 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>291</v>
-      </c>
       <c r="E98" s="5">
         <v>0</v>
       </c>
@@ -7401,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5">
@@ -7409,14 +7413,14 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>294</v>
-      </c>
       <c r="E99" s="5">
         <v>0</v>
       </c>
@@ -7427,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5">
@@ -7435,14 +7439,14 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>297</v>
-      </c>
       <c r="E100" s="5">
         <v>0</v>
       </c>
@@ -7453,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5">
@@ -7461,14 +7465,14 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>300</v>
-      </c>
       <c r="E101" s="5">
         <v>1</v>
       </c>
@@ -7479,7 +7483,7 @@
         <v>1</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5">
@@ -7487,14 +7491,14 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D102" s="5" t="s">
-        <v>303</v>
-      </c>
       <c r="E102" s="5">
         <v>0</v>
       </c>
@@ -7505,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5">
@@ -7513,14 +7517,14 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>306</v>
-      </c>
       <c r="E103" s="5">
         <v>0</v>
       </c>
@@ -7531,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5">
@@ -7539,14 +7543,14 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D104" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="E104" s="5">
         <v>1</v>
       </c>
@@ -7557,7 +7561,7 @@
         <v>1</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.5">
@@ -7565,14 +7569,14 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="D105" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>312</v>
-      </c>
       <c r="E105" s="5">
         <v>0</v>
       </c>
@@ -7583,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5">
@@ -7591,14 +7595,14 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>315</v>
-      </c>
       <c r="E106" s="5">
         <v>0</v>
       </c>
@@ -7609,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5">
@@ -7617,14 +7621,14 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="D107" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>318</v>
-      </c>
       <c r="E107" s="5">
         <v>0</v>
       </c>
@@ -7635,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5">
@@ -7643,14 +7647,14 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="D108" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>321</v>
-      </c>
       <c r="E108" s="5">
         <v>0</v>
       </c>
@@ -7661,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="16.5">
@@ -7669,14 +7673,14 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>324</v>
-      </c>
       <c r="E109" s="5">
         <v>0</v>
       </c>
@@ -7687,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5">
@@ -7695,14 +7699,14 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="D110" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>327</v>
-      </c>
       <c r="E110" s="5">
         <v>0</v>
       </c>
@@ -7713,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5">
@@ -7721,14 +7725,14 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="D111" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>330</v>
-      </c>
       <c r="E111" s="5">
         <v>0</v>
       </c>
@@ -7739,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5">
@@ -7747,14 +7751,14 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="D112" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>333</v>
-      </c>
       <c r="E112" s="5">
         <v>0</v>
       </c>
@@ -7765,7 +7769,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5">
@@ -7773,14 +7777,14 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="D113" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="E113" s="5">
         <v>0</v>
       </c>
@@ -7791,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5">
@@ -7799,14 +7803,14 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="D114" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D114" s="5" t="s">
-        <v>339</v>
-      </c>
       <c r="E114" s="5">
         <v>0</v>
       </c>
@@ -7817,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5">
@@ -7825,14 +7829,14 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="E115" s="5">
         <v>0</v>
       </c>
@@ -7843,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5">
@@ -7851,14 +7855,14 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="D116" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D116" s="5" t="s">
-        <v>345</v>
-      </c>
       <c r="E116" s="5">
         <v>0</v>
       </c>
@@ -7869,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5">
@@ -7877,14 +7881,14 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D117" s="5" t="s">
-        <v>348</v>
-      </c>
       <c r="E117" s="5">
         <v>0</v>
       </c>
@@ -7895,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5">
@@ -7903,14 +7907,14 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D118" s="5" t="s">
-        <v>351</v>
-      </c>
       <c r="E118" s="5">
         <v>0</v>
       </c>
@@ -7921,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5">
@@ -7929,14 +7933,14 @@
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="D119" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>354</v>
-      </c>
       <c r="E119" s="5">
         <v>0</v>
       </c>
@@ -7947,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -7955,14 +7959,14 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="D120" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>357</v>
-      </c>
       <c r="E120" s="5">
         <v>0</v>
       </c>
@@ -7973,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5">
@@ -7981,14 +7985,14 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="D121" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="E121" s="5">
         <v>0</v>
       </c>
@@ -7999,7 +8003,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5">
@@ -8007,14 +8011,14 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="D122" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D122" s="5" t="s">
-        <v>363</v>
-      </c>
       <c r="E122" s="5">
         <v>0</v>
       </c>
@@ -8025,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5">
@@ -8033,14 +8037,14 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="D123" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>366</v>
-      </c>
       <c r="E123" s="5">
         <v>0</v>
       </c>
@@ -8051,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5">
@@ -8059,14 +8063,14 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="D124" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>369</v>
-      </c>
       <c r="E124" s="5">
         <v>0</v>
       </c>
@@ -8077,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5">
@@ -8085,14 +8089,14 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C125" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="D125" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>372</v>
-      </c>
       <c r="E125" s="5">
         <v>0</v>
       </c>
@@ -8103,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5">
@@ -8111,14 +8115,14 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C126" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="D126" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D126" s="5" t="s">
-        <v>375</v>
-      </c>
       <c r="E126" s="5">
         <v>0</v>
       </c>
@@ -8129,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5">
@@ -8137,14 +8141,14 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="D127" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D127" s="5" t="s">
-        <v>378</v>
-      </c>
       <c r="E127" s="5">
         <v>1</v>
       </c>
@@ -8155,7 +8159,7 @@
         <v>1</v>
       </c>
       <c r="I127" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5">
@@ -8163,14 +8167,14 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D128" s="5" t="s">
-        <v>381</v>
-      </c>
       <c r="E128" s="5">
         <v>0</v>
       </c>
@@ -8181,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5">
@@ -8189,14 +8193,14 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="D129" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D129" s="5" t="s">
-        <v>384</v>
-      </c>
       <c r="E129" s="5">
         <v>0</v>
       </c>
@@ -8207,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5">
@@ -8215,14 +8219,14 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="D130" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D130" s="5" t="s">
-        <v>387</v>
-      </c>
       <c r="E130" s="5">
         <v>0</v>
       </c>
@@ -8233,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5">
@@ -8241,14 +8245,14 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="D131" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D131" s="5" t="s">
-        <v>390</v>
-      </c>
       <c r="E131" s="5">
         <v>0</v>
       </c>
@@ -8259,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5">
@@ -8267,14 +8271,14 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C132" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="D132" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="D132" s="5" t="s">
-        <v>393</v>
-      </c>
       <c r="E132" s="5">
         <v>0</v>
       </c>
@@ -8285,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5">
@@ -8293,14 +8297,14 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="D133" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D133" s="5" t="s">
-        <v>396</v>
-      </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
@@ -8311,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="16.5">
@@ -8319,14 +8323,14 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C134" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="D134" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="D134" s="5" t="s">
-        <v>399</v>
-      </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
@@ -8337,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5">
@@ -8345,14 +8349,14 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="D135" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D135" s="5" t="s">
-        <v>402</v>
-      </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
@@ -8363,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5">
@@ -8371,14 +8375,14 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C136" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="D136" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D136" s="5" t="s">
-        <v>405</v>
-      </c>
       <c r="E136" s="5">
         <v>0</v>
       </c>
@@ -8389,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5">
@@ -8397,14 +8401,14 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="D137" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="D137" s="5" t="s">
-        <v>408</v>
-      </c>
       <c r="E137" s="5">
         <v>0</v>
       </c>
@@ -8415,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5">
@@ -8423,14 +8427,14 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C138" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="D138" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D138" s="5" t="s">
-        <v>411</v>
-      </c>
       <c r="E138" s="5">
         <v>0</v>
       </c>
@@ -8441,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5">
@@ -8449,14 +8453,14 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C139" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="D139" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>414</v>
-      </c>
       <c r="E139" s="5">
         <v>0</v>
       </c>
@@ -8467,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5">
@@ -8475,14 +8479,14 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C140" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="D140" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="D140" s="5" t="s">
-        <v>417</v>
-      </c>
       <c r="E140" s="5">
         <v>0</v>
       </c>
@@ -8493,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5">
@@ -8501,14 +8505,14 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="D141" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>420</v>
-      </c>
       <c r="E141" s="5">
         <v>0</v>
       </c>
@@ -8519,7 +8523,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5">
@@ -8527,14 +8531,14 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="D142" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="D142" s="5" t="s">
-        <v>423</v>
-      </c>
       <c r="E142" s="5">
         <v>0</v>
       </c>
@@ -8545,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5">
@@ -8553,14 +8557,14 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C143" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="D143" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="D143" s="5" t="s">
-        <v>426</v>
-      </c>
       <c r="E143" s="5">
         <v>1</v>
       </c>
@@ -8571,7 +8575,7 @@
         <v>1</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5">
@@ -8579,14 +8583,14 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>428</v>
-      </c>
       <c r="E144" s="5">
         <v>0</v>
       </c>
@@ -8597,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5">
@@ -8605,14 +8609,14 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="E145" s="5">
         <v>1</v>
       </c>
@@ -8623,7 +8627,7 @@
         <v>1</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5">
@@ -8631,14 +8635,14 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="D146" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="C146" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>432</v>
-      </c>
       <c r="E146" s="5">
         <v>0</v>
       </c>
@@ -8649,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5">
@@ -8657,14 +8661,14 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="D147" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="D147" s="5" t="s">
-        <v>435</v>
-      </c>
       <c r="E147" s="5">
         <v>0</v>
       </c>
@@ -8675,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5">
@@ -8683,14 +8687,14 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="D148" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="D148" s="5" t="s">
-        <v>438</v>
-      </c>
       <c r="E148" s="5">
         <v>0</v>
       </c>
@@ -8701,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5">
@@ -8709,14 +8713,14 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="D149" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="D149" s="5" t="s">
-        <v>441</v>
-      </c>
       <c r="E149" s="5">
         <v>0</v>
       </c>
@@ -8727,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5">
@@ -8735,14 +8739,14 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="D150" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="D150" s="5" t="s">
-        <v>444</v>
-      </c>
       <c r="E150" s="5">
         <v>0</v>
       </c>
@@ -8753,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5">
@@ -8761,14 +8765,14 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="D151" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="D151" s="5" t="s">
-        <v>447</v>
-      </c>
       <c r="E151" s="5">
         <v>0</v>
       </c>
@@ -8779,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5">
@@ -8787,14 +8791,14 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="D152" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>450</v>
-      </c>
       <c r="E152" s="5">
         <v>0</v>
       </c>
@@ -8805,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5">
@@ -8813,14 +8817,14 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="D153" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="E153" s="5">
         <v>0</v>
       </c>
@@ -8831,7 +8835,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5">
@@ -8839,14 +8843,14 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C154" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="D154" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="D154" s="5" t="s">
-        <v>456</v>
-      </c>
       <c r="E154" s="5">
         <v>0</v>
       </c>
@@ -8857,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5">
@@ -8865,14 +8869,14 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C155" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="D155" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>459</v>
-      </c>
       <c r="E155" s="5">
         <v>0</v>
       </c>
@@ -8883,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5">
@@ -8891,14 +8895,14 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C156" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="D156" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>462</v>
-      </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
@@ -8909,7 +8913,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5">
@@ -8917,14 +8921,14 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C157" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>464</v>
-      </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
@@ -8935,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5">
@@ -8943,14 +8947,14 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C158" s="10" t="s">
-        <v>654</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>466</v>
-      </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
@@ -8961,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5">
@@ -8969,14 +8973,14 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C159" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="D159" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D159" s="5" t="s">
-        <v>469</v>
-      </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
@@ -8987,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5">
@@ -8995,14 +8999,14 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="D160" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="D160" s="5" t="s">
-        <v>472</v>
-      </c>
       <c r="E160" s="5">
         <v>0</v>
       </c>
@@ -9013,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5">
@@ -9021,14 +9025,14 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="D161" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="D161" s="5" t="s">
-        <v>475</v>
-      </c>
       <c r="E161" s="5">
         <v>0</v>
       </c>
@@ -9039,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5">
@@ -9047,14 +9051,14 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C162" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="D162" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="D162" s="5" t="s">
-        <v>478</v>
-      </c>
       <c r="E162" s="5">
         <v>0</v>
       </c>
@@ -9065,7 +9069,7 @@
         <v>0</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5">
@@ -9073,14 +9077,14 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="D163" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="D163" s="5" t="s">
-        <v>481</v>
-      </c>
       <c r="E163" s="5">
         <v>1</v>
       </c>
@@ -9091,7 +9095,7 @@
         <v>1</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5">
@@ -9099,14 +9103,14 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C164" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="D164" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="D164" s="5" t="s">
-        <v>484</v>
-      </c>
       <c r="E164" s="5">
         <v>0</v>
       </c>
@@ -9117,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5">
@@ -9125,13 +9129,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C165" s="5" t="s">
-        <v>486</v>
-      </c>
       <c r="D165" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E165" s="5">
         <v>1</v>
@@ -9143,7 +9147,7 @@
         <v>1</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5">
@@ -9151,14 +9155,14 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C166" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="D166" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="D166" s="5" t="s">
-        <v>489</v>
-      </c>
       <c r="E166" s="5">
         <v>0</v>
       </c>
@@ -9169,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5">
@@ -9177,14 +9181,14 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="D167" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="C167" s="10" t="s">
-        <v>640</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>491</v>
-      </c>
       <c r="E167" s="5">
         <v>1</v>
       </c>
@@ -9195,7 +9199,7 @@
         <v>1</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5">
@@ -9203,14 +9207,14 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C168" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="D168" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="D168" s="5" t="s">
-        <v>494</v>
-      </c>
       <c r="E168" s="5">
         <v>0</v>
       </c>
@@ -9221,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5">
@@ -9229,14 +9233,14 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C169" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="D169" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="D169" s="5" t="s">
-        <v>497</v>
-      </c>
       <c r="E169" s="5">
         <v>0</v>
       </c>
@@ -9247,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5">
@@ -9255,10 +9259,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5">
@@ -9271,7 +9275,7 @@
         <v>0</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5">
@@ -9279,10 +9283,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5">
@@ -9295,7 +9299,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5">
@@ -9303,10 +9307,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C172" s="5" t="s">
         <v>502</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>503</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5">
@@ -9319,7 +9323,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5">
@@ -9327,10 +9331,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="C173" s="10" t="s">
         <v>661</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>662</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5">
@@ -9343,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="I173" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5">
@@ -9351,14 +9355,14 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C174" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="D174" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D174" s="5" t="s">
-        <v>506</v>
-      </c>
       <c r="E174" s="5">
         <v>0</v>
       </c>
@@ -9369,7 +9373,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5">
@@ -9377,10 +9381,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>508</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5">
@@ -9393,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="I175" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5">
@@ -9401,10 +9405,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5">
@@ -9417,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="I176" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5">
@@ -9425,10 +9429,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>512</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5">
@@ -9441,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5">
@@ -9449,14 +9453,14 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C178" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="D178" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="D178" s="5" t="s">
-        <v>515</v>
-      </c>
       <c r="E178" s="5">
         <v>1</v>
       </c>
@@ -9467,7 +9471,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5">
@@ -9475,14 +9479,14 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C179" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="D179" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>518</v>
-      </c>
       <c r="E179" s="5">
         <v>1</v>
       </c>
@@ -9493,7 +9497,7 @@
         <v>1</v>
       </c>
       <c r="I179" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="16.5">
@@ -9501,10 +9505,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C180" s="5" t="s">
         <v>519</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>520</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5">
@@ -9517,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9525,10 +9529,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C181" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7">
@@ -9541,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9549,10 +9553,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C182" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7">
@@ -9565,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9573,10 +9577,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C183" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="7">
@@ -9589,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5">
@@ -9597,11 +9601,11 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>526</v>
+      </c>
+      <c r="C184" t="s">
         <v>527</v>
       </c>
-      <c r="C184" t="s">
-        <v>528</v>
-      </c>
       <c r="E184">
         <v>0</v>
       </c>
@@ -9612,7 +9616,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5">
@@ -9620,11 +9624,11 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>528</v>
+      </c>
+      <c r="C185" t="s">
         <v>529</v>
       </c>
-      <c r="C185" t="s">
-        <v>530</v>
-      </c>
       <c r="E185">
         <v>0</v>
       </c>
@@ -9635,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5">
@@ -9643,11 +9647,11 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>530</v>
+      </c>
+      <c r="C186" t="s">
         <v>531</v>
       </c>
-      <c r="C186" t="s">
-        <v>532</v>
-      </c>
       <c r="E186">
         <v>0</v>
       </c>
@@ -9658,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5">
@@ -9666,11 +9670,11 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>532</v>
+      </c>
+      <c r="C187" t="s">
         <v>533</v>
       </c>
-      <c r="C187" t="s">
-        <v>534</v>
-      </c>
       <c r="E187">
         <v>0</v>
       </c>
@@ -9681,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5">
@@ -9689,11 +9693,11 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>534</v>
+      </c>
+      <c r="C188" t="s">
         <v>535</v>
       </c>
-      <c r="C188" t="s">
-        <v>536</v>
-      </c>
       <c r="E188">
         <v>0</v>
       </c>
@@ -9704,7 +9708,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5">
@@ -9712,11 +9716,11 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>536</v>
+      </c>
+      <c r="C189" t="s">
         <v>537</v>
       </c>
-      <c r="C189" t="s">
-        <v>538</v>
-      </c>
       <c r="E189">
         <v>0</v>
       </c>
@@ -9727,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5">
@@ -9735,11 +9739,11 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>538</v>
+      </c>
+      <c r="C190" t="s">
         <v>539</v>
       </c>
-      <c r="C190" t="s">
-        <v>540</v>
-      </c>
       <c r="E190">
         <v>0</v>
       </c>
@@ -9750,7 +9754,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5">
@@ -9758,11 +9762,11 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>540</v>
+      </c>
+      <c r="C191" t="s">
         <v>541</v>
       </c>
-      <c r="C191" t="s">
-        <v>542</v>
-      </c>
       <c r="E191">
         <v>0</v>
       </c>
@@ -9773,7 +9777,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5">
@@ -9781,11 +9785,11 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>542</v>
+      </c>
+      <c r="C192" t="s">
         <v>543</v>
       </c>
-      <c r="C192" t="s">
-        <v>544</v>
-      </c>
       <c r="E192">
         <v>0</v>
       </c>
@@ -9796,7 +9800,7 @@
         <v>0</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5">
@@ -9804,11 +9808,11 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>544</v>
+      </c>
+      <c r="C193" t="s">
         <v>545</v>
       </c>
-      <c r="C193" t="s">
-        <v>546</v>
-      </c>
       <c r="E193">
         <v>0</v>
       </c>
@@ -9819,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5">
@@ -9827,11 +9831,11 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>546</v>
+      </c>
+      <c r="C194" t="s">
         <v>547</v>
       </c>
-      <c r="C194" t="s">
-        <v>548</v>
-      </c>
       <c r="E194">
         <v>0</v>
       </c>
@@ -9842,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5">
@@ -9850,11 +9854,11 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>548</v>
+      </c>
+      <c r="C195" t="s">
         <v>549</v>
       </c>
-      <c r="C195" t="s">
-        <v>550</v>
-      </c>
       <c r="E195">
         <v>0</v>
       </c>
@@ -9865,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5">
@@ -9873,11 +9877,11 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>550</v>
+      </c>
+      <c r="C196" t="s">
         <v>551</v>
       </c>
-      <c r="C196" t="s">
-        <v>552</v>
-      </c>
       <c r="E196">
         <v>0</v>
       </c>
@@ -9888,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="16.5">
@@ -9896,11 +9900,11 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>552</v>
+      </c>
+      <c r="C197" t="s">
         <v>553</v>
       </c>
-      <c r="C197" t="s">
-        <v>554</v>
-      </c>
       <c r="E197">
         <v>0</v>
       </c>
@@ -9911,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5">
@@ -9919,11 +9923,11 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>554</v>
+      </c>
+      <c r="C198" t="s">
         <v>555</v>
       </c>
-      <c r="C198" t="s">
-        <v>556</v>
-      </c>
       <c r="E198">
         <v>0</v>
       </c>
@@ -9934,7 +9938,7 @@
         <v>0</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5">
@@ -9942,11 +9946,11 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>556</v>
+      </c>
+      <c r="C199" t="s">
         <v>557</v>
       </c>
-      <c r="C199" t="s">
-        <v>558</v>
-      </c>
       <c r="E199">
         <v>0</v>
       </c>
@@ -9957,7 +9961,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5">
@@ -9965,11 +9969,11 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>558</v>
+      </c>
+      <c r="C200" t="s">
         <v>559</v>
       </c>
-      <c r="C200" t="s">
-        <v>560</v>
-      </c>
       <c r="E200">
         <v>0</v>
       </c>
@@ -9980,7 +9984,7 @@
         <v>0</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5">
@@ -9988,11 +9992,11 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>560</v>
+      </c>
+      <c r="C201" t="s">
         <v>561</v>
       </c>
-      <c r="C201" t="s">
-        <v>562</v>
-      </c>
       <c r="E201">
         <v>0</v>
       </c>
@@ -10003,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5">
@@ -10011,11 +10015,11 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>562</v>
+      </c>
+      <c r="C202" t="s">
         <v>563</v>
       </c>
-      <c r="C202" t="s">
-        <v>564</v>
-      </c>
       <c r="E202">
         <v>0</v>
       </c>
@@ -10026,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5">
@@ -10034,11 +10038,11 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>564</v>
+      </c>
+      <c r="C203" t="s">
         <v>565</v>
       </c>
-      <c r="C203" t="s">
-        <v>566</v>
-      </c>
       <c r="E203">
         <v>0</v>
       </c>
@@ -10049,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5">
@@ -10057,11 +10061,11 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
+        <v>566</v>
+      </c>
+      <c r="C204" t="s">
         <v>567</v>
       </c>
-      <c r="C204" t="s">
-        <v>568</v>
-      </c>
       <c r="E204">
         <v>0</v>
       </c>
@@ -10072,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5">
@@ -10080,14 +10084,14 @@
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C205" t="s">
+        <v>568</v>
+      </c>
+      <c r="D205" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="C205" t="s">
-        <v>569</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>612</v>
-      </c>
       <c r="E205">
         <v>1</v>
       </c>
@@ -10098,7 +10102,7 @@
         <v>1</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5">
@@ -10106,14 +10110,14 @@
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="C206" t="s">
+        <v>569</v>
+      </c>
+      <c r="D206" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="C206" t="s">
-        <v>570</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>614</v>
-      </c>
       <c r="E206">
         <v>1</v>
       </c>
@@ -10124,7 +10128,7 @@
         <v>1</v>
       </c>
       <c r="I206" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5">
@@ -10132,14 +10136,14 @@
         <v>206</v>
       </c>
       <c r="B207" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="C207" t="s">
+        <v>570</v>
+      </c>
+      <c r="D207" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="C207" t="s">
-        <v>571</v>
-      </c>
-      <c r="D207" s="9" t="s">
-        <v>616</v>
-      </c>
       <c r="E207">
         <v>1</v>
       </c>
@@ -10150,7 +10154,7 @@
         <v>1</v>
       </c>
       <c r="I207" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="16.5">
@@ -10158,11 +10162,11 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>571</v>
+      </c>
+      <c r="C208" t="s">
         <v>572</v>
       </c>
-      <c r="C208" t="s">
-        <v>573</v>
-      </c>
       <c r="E208">
         <v>0</v>
       </c>
@@ -10173,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5">
@@ -10181,11 +10185,11 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>573</v>
+      </c>
+      <c r="C209" t="s">
         <v>574</v>
       </c>
-      <c r="C209" t="s">
-        <v>575</v>
-      </c>
       <c r="E209">
         <v>0</v>
       </c>
@@ -10196,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5">
@@ -10204,11 +10208,11 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
+        <v>575</v>
+      </c>
+      <c r="C210" t="s">
         <v>576</v>
       </c>
-      <c r="C210" t="s">
-        <v>577</v>
-      </c>
       <c r="E210">
         <v>0</v>
       </c>
@@ -10219,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5">
@@ -10227,11 +10231,11 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>577</v>
+      </c>
+      <c r="C211" t="s">
         <v>578</v>
       </c>
-      <c r="C211" t="s">
-        <v>579</v>
-      </c>
       <c r="E211">
         <v>0</v>
       </c>
@@ -10242,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="I211" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5">
@@ -10250,11 +10254,11 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>579</v>
+      </c>
+      <c r="C212" t="s">
         <v>580</v>
       </c>
-      <c r="C212" t="s">
-        <v>581</v>
-      </c>
       <c r="E212">
         <v>1</v>
       </c>
@@ -10265,7 +10269,7 @@
         <v>1</v>
       </c>
       <c r="I212" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5">
@@ -10273,11 +10277,11 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
+        <v>581</v>
+      </c>
+      <c r="C213" t="s">
         <v>582</v>
       </c>
-      <c r="C213" t="s">
-        <v>583</v>
-      </c>
       <c r="E213">
         <v>0</v>
       </c>
@@ -10288,7 +10292,7 @@
         <v>0</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5">
@@ -10296,11 +10300,11 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
+        <v>583</v>
+      </c>
+      <c r="C214" t="s">
         <v>584</v>
       </c>
-      <c r="C214" t="s">
-        <v>585</v>
-      </c>
       <c r="E214">
         <v>0</v>
       </c>
@@ -10311,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5">
@@ -10319,11 +10323,11 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>585</v>
+      </c>
+      <c r="C215" t="s">
         <v>586</v>
       </c>
-      <c r="C215" t="s">
-        <v>587</v>
-      </c>
       <c r="E215">
         <v>0</v>
       </c>
@@ -10334,7 +10338,7 @@
         <v>0</v>
       </c>
       <c r="I215" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5">
@@ -10342,11 +10346,11 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>587</v>
+      </c>
+      <c r="C216" t="s">
         <v>588</v>
       </c>
-      <c r="C216" t="s">
-        <v>589</v>
-      </c>
       <c r="E216">
         <v>0</v>
       </c>
@@ -10357,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5">
@@ -10365,11 +10369,11 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>589</v>
+      </c>
+      <c r="C217" t="s">
         <v>590</v>
       </c>
-      <c r="C217" t="s">
-        <v>591</v>
-      </c>
       <c r="E217">
         <v>0</v>
       </c>
@@ -10380,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="I217" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="16.5">
@@ -10388,11 +10392,11 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>591</v>
+      </c>
+      <c r="C218" t="s">
         <v>592</v>
       </c>
-      <c r="C218" t="s">
-        <v>593</v>
-      </c>
       <c r="E218">
         <v>0</v>
       </c>
@@ -10403,7 +10407,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5">
@@ -10411,11 +10415,11 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
+        <v>593</v>
+      </c>
+      <c r="C219" t="s">
         <v>594</v>
       </c>
-      <c r="C219" t="s">
-        <v>595</v>
-      </c>
       <c r="E219">
         <v>0</v>
       </c>
@@ -10426,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5">
@@ -10434,11 +10438,11 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>595</v>
+      </c>
+      <c r="C220" t="s">
         <v>596</v>
       </c>
-      <c r="C220" t="s">
-        <v>597</v>
-      </c>
       <c r="E220">
         <v>0</v>
       </c>
@@ -10449,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5">
@@ -10457,11 +10461,11 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>597</v>
+      </c>
+      <c r="C221" t="s">
         <v>598</v>
       </c>
-      <c r="C221" t="s">
-        <v>599</v>
-      </c>
       <c r="E221">
         <v>0</v>
       </c>
@@ -10472,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5">
@@ -10480,11 +10484,11 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>599</v>
+      </c>
+      <c r="C222" t="s">
         <v>600</v>
       </c>
-      <c r="C222" t="s">
-        <v>601</v>
-      </c>
       <c r="E222">
         <v>0</v>
       </c>
@@ -10495,7 +10499,7 @@
         <v>0</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5">
@@ -10503,11 +10507,11 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>601</v>
+      </c>
+      <c r="C223" t="s">
         <v>602</v>
       </c>
-      <c r="C223" t="s">
-        <v>603</v>
-      </c>
       <c r="E223">
         <v>0</v>
       </c>
@@ -10518,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5">
@@ -10526,11 +10530,11 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
+        <v>603</v>
+      </c>
+      <c r="C224" t="s">
         <v>604</v>
       </c>
-      <c r="C224" t="s">
-        <v>605</v>
-      </c>
       <c r="E224">
         <v>0</v>
       </c>
@@ -10541,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5">
@@ -10549,11 +10553,11 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
+        <v>605</v>
+      </c>
+      <c r="C225" t="s">
         <v>606</v>
       </c>
-      <c r="C225" t="s">
-        <v>607</v>
-      </c>
       <c r="E225">
         <v>0</v>
       </c>
@@ -10564,7 +10568,7 @@
         <v>0</v>
       </c>
       <c r="I225" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="16.5">
@@ -10572,10 +10576,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C226" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -10587,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="I226" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="16.5">
@@ -10595,13 +10599,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C227" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="D227" s="9" t="s">
         <v>618</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>619</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10618,13 +10622,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="C228" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="C228" s="9" t="s">
+      <c r="D228" t="s">
         <v>622</v>
-      </c>
-      <c r="D228" t="s">
-        <v>623</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -10641,13 +10645,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="C229" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="C229" s="9" t="s">
+      <c r="D229" s="9" t="s">
         <v>625</v>
-      </c>
-      <c r="D229" s="9" t="s">
-        <v>626</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -10664,13 +10668,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="C230" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="C230" s="9" t="s">
+      <c r="D230" s="9" t="s">
         <v>628</v>
-      </c>
-      <c r="D230" s="9" t="s">
-        <v>629</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -10687,13 +10691,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="C231" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="C231" s="9" t="s">
+      <c r="D231" s="9" t="s">
         <v>634</v>
-      </c>
-      <c r="D231" s="9" t="s">
-        <v>635</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -10710,13 +10714,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="C232" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="C232" s="9" t="s">
-        <v>632</v>
-      </c>
       <c r="D232" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -10733,13 +10737,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="D233" s="9" t="s">
         <v>641</v>
-      </c>
-      <c r="C233" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D233" s="9" t="s">
-        <v>642</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -10756,13 +10760,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="C234" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="C234" s="9" t="s">
+      <c r="D234" s="9" t="s">
         <v>657</v>
-      </c>
-      <c r="D234" s="9" t="s">
-        <v>658</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -10779,13 +10783,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="C235" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="C235" s="9" t="s">
+      <c r="D235" s="9" t="s">
         <v>665</v>
-      </c>
-      <c r="D235" s="9" t="s">
-        <v>666</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -10802,14 +10806,14 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="D236" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="C236" s="9" t="s">
-        <v>812</v>
-      </c>
-      <c r="D236" s="9" t="s">
-        <v>669</v>
-      </c>
       <c r="E236">
         <v>1</v>
       </c>
@@ -10820,7 +10824,7 @@
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5">
@@ -10828,25 +10832,25 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="I237" s="9" t="s">
         <v>670</v>
-      </c>
-      <c r="C237" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="D237" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="F237">
-        <v>1</v>
-      </c>
-      <c r="G237">
-        <v>1</v>
-      </c>
-      <c r="I237" s="9" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5">
@@ -10854,25 +10858,25 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="C238" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="C238" s="9" t="s">
+      <c r="D238" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="D238" s="9" t="s">
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
         <v>676</v>
-      </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <v>1</v>
-      </c>
-      <c r="I238" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5">
@@ -10880,25 +10884,25 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="D239" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="C239" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="D239" s="9" t="s">
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="I239" t="s">
         <v>679</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-      <c r="F239">
-        <v>1</v>
-      </c>
-      <c r="G239">
-        <v>1</v>
-      </c>
-      <c r="I239" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5">
@@ -10906,25 +10910,25 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="I240" t="s">
         <v>685</v>
-      </c>
-      <c r="C240" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="D240" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="E240">
-        <v>1</v>
-      </c>
-      <c r="F240">
-        <v>1</v>
-      </c>
-      <c r="G240">
-        <v>1</v>
-      </c>
-      <c r="I240" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5">
@@ -10932,25 +10936,25 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="C241" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="D241" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="D241" s="9" t="s">
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="I241" s="9" t="s">
         <v>689</v>
-      </c>
-      <c r="E241">
-        <v>1</v>
-      </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-      <c r="G241">
-        <v>1</v>
-      </c>
-      <c r="I241" s="9" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5">
@@ -10958,25 +10962,25 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="C242" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="D242" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="D242" s="9" t="s">
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="I242" s="9" t="s">
         <v>693</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-      <c r="I242" s="9" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5">
@@ -10984,25 +10988,25 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="C243" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="C243" s="9" t="s">
+      <c r="D243" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="D243" s="9" t="s">
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="I243" s="9" t="s">
         <v>701</v>
-      </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <v>1</v>
-      </c>
-      <c r="I243" s="9" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5">
@@ -11010,25 +11014,25 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="C244" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="C244" s="9" t="s">
+      <c r="D244" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="D244" s="9" t="s">
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="I244" s="9" t="s">
         <v>705</v>
-      </c>
-      <c r="E244">
-        <v>1</v>
-      </c>
-      <c r="F244">
-        <v>1</v>
-      </c>
-      <c r="G244">
-        <v>1</v>
-      </c>
-      <c r="I244" s="9" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5">
@@ -11036,13 +11040,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -11054,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5">
@@ -11062,13 +11066,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -11080,7 +11084,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5">
@@ -11088,13 +11092,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -11106,7 +11110,7 @@
         <v>1</v>
       </c>
       <c r="I247" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5">
@@ -11114,25 +11118,25 @@
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D248" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="C248" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="D248" s="9" t="s">
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="I248" s="9" t="s">
         <v>721</v>
-      </c>
-      <c r="E248">
-        <v>1</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248">
-        <v>1</v>
-      </c>
-      <c r="I248" s="9" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5">
@@ -11140,25 +11144,25 @@
         <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="D249" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="C249" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="D249" s="9" t="s">
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="I249" s="9" t="s">
         <v>725</v>
-      </c>
-      <c r="E249">
-        <v>1</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-      <c r="G249">
-        <v>1</v>
-      </c>
-      <c r="I249" s="9" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5">
@@ -11166,25 +11170,25 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C250" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="C250" s="9" t="s">
+      <c r="D250" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="D250" s="9" t="s">
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="I250" s="9" t="s">
         <v>729</v>
-      </c>
-      <c r="E250">
-        <v>1</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250">
-        <v>1</v>
-      </c>
-      <c r="I250" s="9" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5">
@@ -11192,25 +11196,25 @@
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="C251" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="C251" s="9" t="s">
+      <c r="D251" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="I251" s="9" t="s">
         <v>733</v>
-      </c>
-      <c r="D251" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="E251">
-        <v>1</v>
-      </c>
-      <c r="F251">
-        <v>1</v>
-      </c>
-      <c r="G251">
-        <v>1</v>
-      </c>
-      <c r="I251" s="9" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5">
@@ -11218,25 +11222,25 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="D252" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="C252" s="9" t="s">
-        <v>744</v>
-      </c>
-      <c r="D252" s="9" t="s">
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="I252" s="9" t="s">
         <v>736</v>
-      </c>
-      <c r="E252">
-        <v>1</v>
-      </c>
-      <c r="F252">
-        <v>1</v>
-      </c>
-      <c r="G252">
-        <v>1</v>
-      </c>
-      <c r="I252" s="9" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5">
@@ -11244,14 +11248,14 @@
         <v>252</v>
       </c>
       <c r="B253" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="C253" t="s">
+        <v>742</v>
+      </c>
+      <c r="D253" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="C253" t="s">
-        <v>743</v>
-      </c>
-      <c r="D253" s="9" t="s">
-        <v>741</v>
-      </c>
       <c r="E253">
         <v>0</v>
       </c>
@@ -11262,7 +11266,7 @@
         <v>1</v>
       </c>
       <c r="I253" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5">
@@ -11270,13 +11274,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="31" t="s">
+        <v>980</v>
+      </c>
+      <c r="C254" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="D254" s="31" t="s">
         <v>981</v>
-      </c>
-      <c r="C254" s="32" t="s">
-        <v>742</v>
-      </c>
-      <c r="D254" s="31" t="s">
-        <v>982</v>
       </c>
       <c r="E254" s="32">
         <v>0</v>
@@ -11289,7 +11293,7 @@
       </c>
       <c r="H254" s="32"/>
       <c r="I254" s="31" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5">
@@ -11297,25 +11301,25 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="C255" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="C255" s="9" t="s">
+      <c r="D255" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="D255" s="9" t="s">
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="I255" s="9" t="s">
         <v>747</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>1</v>
-      </c>
-      <c r="I255" s="9" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="16.5">
@@ -11323,25 +11327,25 @@
         <v>255</v>
       </c>
       <c r="B256" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="C256" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="C256" s="9" t="s">
+      <c r="D256" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="D256" s="9" t="s">
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="I256" s="9" t="s">
         <v>751</v>
-      </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256">
-        <v>1</v>
-      </c>
-      <c r="G256">
-        <v>1</v>
-      </c>
-      <c r="I256" s="9" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="27" customFormat="1" ht="16.5">
@@ -11349,25 +11353,25 @@
         <v>256</v>
       </c>
       <c r="B257" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="C257" s="26" t="s">
+        <v>929</v>
+      </c>
+      <c r="D257" s="26" t="s">
         <v>753</v>
       </c>
-      <c r="C257" s="26" t="s">
+      <c r="E257" s="27">
+        <v>1</v>
+      </c>
+      <c r="F257" s="27">
+        <v>1</v>
+      </c>
+      <c r="G257" s="27">
+        <v>1</v>
+      </c>
+      <c r="I257" s="22" t="s">
         <v>930</v>
-      </c>
-      <c r="D257" s="26" t="s">
-        <v>754</v>
-      </c>
-      <c r="E257" s="27">
-        <v>1</v>
-      </c>
-      <c r="F257" s="27">
-        <v>1</v>
-      </c>
-      <c r="G257" s="27">
-        <v>1</v>
-      </c>
-      <c r="I257" s="22" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11375,14 +11379,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C258" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="D258" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="D258" s="15" t="s">
-        <v>757</v>
-      </c>
       <c r="E258" s="17">
         <v>0</v>
       </c>
@@ -11393,7 +11397,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11401,14 +11405,14 @@
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="C259" s="15" t="s">
         <v>759</v>
       </c>
-      <c r="C259" s="15" t="s">
+      <c r="D259" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="D259" s="15" t="s">
-        <v>761</v>
-      </c>
       <c r="E259" s="17">
         <v>0</v>
       </c>
@@ -11419,7 +11423,7 @@
         <v>1</v>
       </c>
       <c r="I259" s="15" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11427,25 +11431,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="C260" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="D260" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="D260" s="15" t="s">
+      <c r="E260" s="17">
+        <v>1</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="15" t="s">
         <v>764</v>
-      </c>
-      <c r="E260" s="17">
-        <v>1</v>
-      </c>
-      <c r="F260" s="17">
-        <v>1</v>
-      </c>
-      <c r="G260" s="17">
-        <v>1</v>
-      </c>
-      <c r="I260" s="15" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11453,25 +11457,25 @@
         <v>260</v>
       </c>
       <c r="B261" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="C261" s="15" t="s">
         <v>766</v>
       </c>
-      <c r="C261" s="15" t="s">
+      <c r="D261" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="D261" s="15" t="s">
+      <c r="E261" s="17">
+        <v>0</v>
+      </c>
+      <c r="F261" s="17">
+        <v>1</v>
+      </c>
+      <c r="G261" s="17">
+        <v>1</v>
+      </c>
+      <c r="I261" s="15" t="s">
         <v>768</v>
-      </c>
-      <c r="E261" s="17">
-        <v>0</v>
-      </c>
-      <c r="F261" s="17">
-        <v>1</v>
-      </c>
-      <c r="G261" s="17">
-        <v>1</v>
-      </c>
-      <c r="I261" s="15" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
@@ -11479,25 +11483,25 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>769</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="D262" t="s">
         <v>770</v>
       </c>
-      <c r="C262" s="9" t="s">
-        <v>773</v>
-      </c>
-      <c r="D262" t="s">
+      <c r="E262" s="5">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="I262" s="12" t="s">
         <v>771</v>
-      </c>
-      <c r="E262" s="5">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-      <c r="I262" s="12" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.5">
@@ -11505,14 +11509,14 @@
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="C263" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="D263" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="D263" s="15" t="s">
-        <v>776</v>
-      </c>
       <c r="E263">
         <v>1</v>
       </c>
@@ -11523,7 +11527,7 @@
         <v>1</v>
       </c>
       <c r="I263" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11531,25 +11535,25 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="C264" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="D264" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="D264" s="15" t="s">
+      <c r="E264" s="17">
+        <v>0</v>
+      </c>
+      <c r="F264" s="17">
+        <v>0</v>
+      </c>
+      <c r="G264" s="17">
+        <v>0</v>
+      </c>
+      <c r="I264" s="15" t="s">
         <v>779</v>
-      </c>
-      <c r="E264" s="17">
-        <v>0</v>
-      </c>
-      <c r="F264" s="17">
-        <v>0</v>
-      </c>
-      <c r="G264" s="17">
-        <v>0</v>
-      </c>
-      <c r="I264" s="15" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11557,14 +11561,14 @@
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="C265" s="15" t="s">
         <v>781</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="D265" s="15" t="s">
         <v>782</v>
       </c>
-      <c r="D265" s="15" t="s">
-        <v>783</v>
-      </c>
       <c r="E265" s="17">
         <v>0</v>
       </c>
@@ -11575,7 +11579,7 @@
         <v>0</v>
       </c>
       <c r="I265" s="15" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11583,25 +11587,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="C266" s="15" t="s">
         <v>784</v>
       </c>
-      <c r="C266" s="15" t="s">
+      <c r="D266" s="15" t="s">
         <v>785</v>
       </c>
-      <c r="D266" s="15" t="s">
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="17" t="s">
         <v>786</v>
-      </c>
-      <c r="E266" s="17">
-        <v>0</v>
-      </c>
-      <c r="F266" s="17">
-        <v>0</v>
-      </c>
-      <c r="G266" s="17">
-        <v>0</v>
-      </c>
-      <c r="I266" s="17" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11609,25 +11613,25 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="C267" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="D267" s="18" t="s">
         <v>788</v>
       </c>
-      <c r="C267" s="15" t="s">
+      <c r="E267" s="17">
+        <v>0</v>
+      </c>
+      <c r="F267" s="17">
+        <v>0</v>
+      </c>
+      <c r="G267" s="17">
+        <v>0</v>
+      </c>
+      <c r="I267" s="19" t="s">
         <v>790</v>
-      </c>
-      <c r="D267" s="18" t="s">
-        <v>789</v>
-      </c>
-      <c r="E267" s="17">
-        <v>0</v>
-      </c>
-      <c r="F267" s="17">
-        <v>0</v>
-      </c>
-      <c r="G267" s="17">
-        <v>0</v>
-      </c>
-      <c r="I267" s="19" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11635,14 +11639,14 @@
         <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="C268" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="D268" s="18" t="s">
         <v>792</v>
       </c>
-      <c r="C268" s="15" t="s">
-        <v>794</v>
-      </c>
-      <c r="D268" s="18" t="s">
-        <v>793</v>
-      </c>
       <c r="E268" s="17">
         <v>0</v>
       </c>
@@ -11653,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="I268" s="19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11661,14 +11665,14 @@
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C269" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="D269" s="18" t="s">
         <v>796</v>
       </c>
-      <c r="D269" s="18" t="s">
-        <v>797</v>
-      </c>
       <c r="E269" s="17">
         <v>1</v>
       </c>
@@ -11679,7 +11683,7 @@
         <v>1</v>
       </c>
       <c r="I269" s="19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="16.5">
@@ -11687,13 +11691,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="C270" s="15" t="s">
         <v>799</v>
       </c>
-      <c r="C270" s="15" t="s">
-        <v>800</v>
-      </c>
       <c r="D270" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E270" s="17">
         <v>0</v>
@@ -11706,7 +11710,7 @@
       </c>
       <c r="H270" s="17"/>
       <c r="I270" s="19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="16.5">
@@ -11714,13 +11718,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="C271" s="15" t="s">
         <v>801</v>
       </c>
-      <c r="C271" s="15" t="s">
+      <c r="D271" s="18" t="s">
         <v>802</v>
-      </c>
-      <c r="D271" s="18" t="s">
-        <v>803</v>
       </c>
       <c r="E271" s="17">
         <v>0</v>
@@ -11733,7 +11737,7 @@
       </c>
       <c r="H271" s="17"/>
       <c r="I271" s="19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="16.5">
@@ -11741,13 +11745,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="C272" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="D272" s="18" t="s">
         <v>805</v>
-      </c>
-      <c r="C272" s="15" t="s">
-        <v>807</v>
-      </c>
-      <c r="D272" s="18" t="s">
-        <v>806</v>
       </c>
       <c r="E272" s="17">
         <v>1</v>
@@ -11760,7 +11764,7 @@
       </c>
       <c r="H272" s="17"/>
       <c r="I272" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5">
@@ -11768,13 +11772,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="C273" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="C273" s="15" t="s">
+      <c r="D273" s="18" t="s">
         <v>810</v>
-      </c>
-      <c r="D273" s="18" t="s">
-        <v>811</v>
       </c>
       <c r="E273" s="17">
         <v>1</v>
@@ -11787,7 +11791,7 @@
       </c>
       <c r="H273" s="17"/>
       <c r="I273" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5">
@@ -11795,13 +11799,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
+        <v>812</v>
+      </c>
+      <c r="C274" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="D274" s="18" t="s">
         <v>813</v>
-      </c>
-      <c r="C274" s="15" t="s">
-        <v>815</v>
-      </c>
-      <c r="D274" s="18" t="s">
-        <v>814</v>
       </c>
       <c r="E274" s="17">
         <v>1</v>
@@ -11814,7 +11818,7 @@
       </c>
       <c r="H274" s="17"/>
       <c r="I274" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="16.5">
@@ -11822,13 +11826,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C275" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="D275" s="18" t="s">
         <v>816</v>
-      </c>
-      <c r="D275" s="18" t="s">
-        <v>817</v>
       </c>
       <c r="E275" s="17">
         <v>0</v>
@@ -11841,7 +11845,7 @@
       </c>
       <c r="H275" s="17"/>
       <c r="I275" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="21" customFormat="1" ht="17.25">
@@ -11849,13 +11853,13 @@
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="C276" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="D276" s="18" t="s">
         <v>821</v>
-      </c>
-      <c r="C276" s="15" t="s">
-        <v>820</v>
-      </c>
-      <c r="D276" s="18" t="s">
-        <v>822</v>
       </c>
       <c r="E276" s="17">
         <v>0</v>
@@ -11868,7 +11872,7 @@
       </c>
       <c r="H276" s="17"/>
       <c r="I276" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="16.5">
@@ -11876,22 +11880,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="C277" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="C277" s="15" t="s">
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="I277" s="19" t="s">
         <v>824</v>
-      </c>
-      <c r="E277">
-        <v>0</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-      <c r="I277" s="19" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="278" spans="1:9" s="17" customFormat="1" ht="15.75" customHeight="1">
@@ -11899,13 +11903,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="C278" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="D278" s="35" t="s">
         <v>826</v>
-      </c>
-      <c r="C278" s="15" t="s">
-        <v>938</v>
-      </c>
-      <c r="D278" s="35" t="s">
-        <v>827</v>
       </c>
       <c r="E278" s="15">
         <v>0</v>
@@ -11918,7 +11922,7 @@
       </c>
       <c r="H278" s="15"/>
       <c r="I278" s="15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -11926,25 +11930,25 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D279" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="I279" s="19" t="s">
         <v>828</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>1</v>
-      </c>
-      <c r="G279">
-        <v>1</v>
-      </c>
-      <c r="I279" s="19" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -11952,22 +11956,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="C280" s="15" t="s">
+        <v>829</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="19" t="s">
         <v>831</v>
-      </c>
-      <c r="C280" s="15" t="s">
-        <v>830</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="19" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -11975,13 +11979,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11993,7 +11997,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -12001,13 +12005,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D282" s="18" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -12019,7 +12023,7 @@
         <v>1</v>
       </c>
       <c r="I282" s="19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
@@ -12027,25 +12031,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="C283" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="D283" s="18" t="s">
         <v>847</v>
       </c>
-      <c r="C283" s="15" t="s">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="I283" s="19" t="s">
         <v>841</v>
-      </c>
-      <c r="D283" s="18" t="s">
-        <v>848</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="I283" s="19" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="39" customFormat="1" ht="17.25" customHeight="1">
@@ -12053,25 +12057,25 @@
         <v>283</v>
       </c>
       <c r="B284" s="38" t="s">
+        <v>842</v>
+      </c>
+      <c r="C284" s="37" t="s">
         <v>843</v>
       </c>
-      <c r="C284" s="37" t="s">
+      <c r="D284" s="38" t="s">
         <v>844</v>
       </c>
-      <c r="D284" s="38" t="s">
+      <c r="E284" s="39">
+        <v>1</v>
+      </c>
+      <c r="F284" s="39">
+        <v>1</v>
+      </c>
+      <c r="G284" s="39">
+        <v>1</v>
+      </c>
+      <c r="I284" s="40" t="s">
         <v>845</v>
-      </c>
-      <c r="E284" s="39">
-        <v>1</v>
-      </c>
-      <c r="F284" s="39">
-        <v>1</v>
-      </c>
-      <c r="G284" s="39">
-        <v>1</v>
-      </c>
-      <c r="I284" s="40" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12079,13 +12083,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="38" t="s">
+        <v>850</v>
+      </c>
+      <c r="C285" s="37" t="s">
         <v>851</v>
       </c>
-      <c r="C285" s="37" t="s">
-        <v>852</v>
-      </c>
       <c r="D285" s="38" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E285" s="39">
         <v>1</v>
@@ -12097,7 +12101,7 @@
         <v>1</v>
       </c>
       <c r="I285" s="40" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="286" spans="1:9" ht="16.5">
@@ -12105,25 +12109,25 @@
         <v>285</v>
       </c>
       <c r="B286" s="15" t="s">
+        <v>853</v>
+      </c>
+      <c r="C286" s="15" t="s">
         <v>854</v>
       </c>
-      <c r="C286" s="15" t="s">
+      <c r="D286" s="18" t="s">
         <v>855</v>
       </c>
-      <c r="D286" s="18" t="s">
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="I286" s="19" t="s">
         <v>856</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286">
-        <v>0</v>
-      </c>
-      <c r="I286" s="19" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="287" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12131,13 +12135,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="37" t="s">
+        <v>858</v>
+      </c>
+      <c r="C287" s="37" t="s">
         <v>859</v>
       </c>
-      <c r="C287" s="37" t="s">
-        <v>860</v>
-      </c>
       <c r="D287" s="38" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E287" s="39">
         <v>1</v>
@@ -12149,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="I287" s="40" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="288" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12157,25 +12161,25 @@
         <v>287</v>
       </c>
       <c r="B288" s="37" t="s">
+        <v>860</v>
+      </c>
+      <c r="C288" s="37" t="s">
         <v>861</v>
       </c>
-      <c r="C288" s="37" t="s">
+      <c r="D288" s="38" t="s">
         <v>862</v>
       </c>
-      <c r="D288" s="38" t="s">
+      <c r="E288" s="39">
+        <v>1</v>
+      </c>
+      <c r="F288" s="39">
+        <v>1</v>
+      </c>
+      <c r="G288" s="39">
+        <v>1</v>
+      </c>
+      <c r="I288" s="40" t="s">
         <v>863</v>
-      </c>
-      <c r="E288" s="39">
-        <v>1</v>
-      </c>
-      <c r="F288" s="39">
-        <v>1</v>
-      </c>
-      <c r="G288" s="39">
-        <v>1</v>
-      </c>
-      <c r="I288" s="40" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="21" customFormat="1" ht="16.5">
@@ -12183,13 +12187,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C289" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="D289" s="15" t="s">
         <v>867</v>
-      </c>
-      <c r="D289" s="15" t="s">
-        <v>868</v>
       </c>
       <c r="E289" s="17">
         <v>0</v>
@@ -12202,7 +12206,7 @@
       </c>
       <c r="H289" s="17"/>
       <c r="I289" s="15" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="290" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12210,25 +12214,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="37" t="s">
+        <v>868</v>
+      </c>
+      <c r="C290" s="37" t="s">
         <v>869</v>
       </c>
-      <c r="C290" s="37" t="s">
+      <c r="D290" s="38" t="s">
         <v>870</v>
       </c>
-      <c r="D290" s="38" t="s">
+      <c r="E290" s="39">
+        <v>1</v>
+      </c>
+      <c r="F290" s="39">
+        <v>1</v>
+      </c>
+      <c r="G290" s="39">
+        <v>1</v>
+      </c>
+      <c r="I290" s="40" t="s">
         <v>871</v>
-      </c>
-      <c r="E290" s="39">
-        <v>1</v>
-      </c>
-      <c r="F290" s="39">
-        <v>1</v>
-      </c>
-      <c r="G290" s="39">
-        <v>1</v>
-      </c>
-      <c r="I290" s="40" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="291" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12236,25 +12240,25 @@
         <v>290</v>
       </c>
       <c r="B291" s="38" t="s">
+        <v>872</v>
+      </c>
+      <c r="C291" s="37" t="s">
         <v>873</v>
       </c>
-      <c r="C291" s="37" t="s">
+      <c r="D291" s="38" t="s">
         <v>874</v>
       </c>
-      <c r="D291" s="38" t="s">
+      <c r="E291" s="39">
+        <v>1</v>
+      </c>
+      <c r="F291" s="39">
+        <v>1</v>
+      </c>
+      <c r="G291" s="39">
+        <v>1</v>
+      </c>
+      <c r="I291" s="40" t="s">
         <v>875</v>
-      </c>
-      <c r="E291" s="39">
-        <v>1</v>
-      </c>
-      <c r="F291" s="39">
-        <v>1</v>
-      </c>
-      <c r="G291" s="39">
-        <v>1</v>
-      </c>
-      <c r="I291" s="40" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="292" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12262,14 +12266,14 @@
         <v>291</v>
       </c>
       <c r="B292" s="38" t="s">
+        <v>876</v>
+      </c>
+      <c r="C292" s="37" t="s">
         <v>877</v>
       </c>
-      <c r="C292" s="37" t="s">
+      <c r="D292" s="38" t="s">
         <v>878</v>
       </c>
-      <c r="D292" s="38" t="s">
-        <v>879</v>
-      </c>
       <c r="E292" s="39">
         <v>1</v>
       </c>
@@ -12280,7 +12284,7 @@
         <v>1</v>
       </c>
       <c r="I292" s="40" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="293" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12288,13 +12292,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="38" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C293" s="37" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D293" s="38" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E293" s="39">
         <v>1</v>
@@ -12306,7 +12310,7 @@
         <v>1</v>
       </c>
       <c r="I293" s="40" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="294" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12314,25 +12318,25 @@
         <v>293</v>
       </c>
       <c r="B294" s="38" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C294" s="37" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D294" s="38" t="s">
+        <v>882</v>
+      </c>
+      <c r="E294" s="39">
+        <v>1</v>
+      </c>
+      <c r="F294" s="39">
+        <v>1</v>
+      </c>
+      <c r="G294" s="39">
+        <v>1</v>
+      </c>
+      <c r="I294" s="40" t="s">
         <v>883</v>
-      </c>
-      <c r="E294" s="39">
-        <v>1</v>
-      </c>
-      <c r="F294" s="39">
-        <v>1</v>
-      </c>
-      <c r="G294" s="39">
-        <v>1</v>
-      </c>
-      <c r="I294" s="40" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="295" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12340,14 +12344,14 @@
         <v>294</v>
       </c>
       <c r="B295" s="38" t="s">
+        <v>886</v>
+      </c>
+      <c r="C295" s="37" t="s">
         <v>887</v>
       </c>
-      <c r="C295" s="37" t="s">
+      <c r="D295" s="38" t="s">
         <v>888</v>
       </c>
-      <c r="D295" s="38" t="s">
-        <v>889</v>
-      </c>
       <c r="E295" s="39">
         <v>1</v>
       </c>
@@ -12358,7 +12362,7 @@
         <v>1</v>
       </c>
       <c r="I295" s="40" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="296" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12366,14 +12370,14 @@
         <v>295</v>
       </c>
       <c r="B296" s="38" t="s">
+        <v>889</v>
+      </c>
+      <c r="C296" s="37" t="s">
         <v>890</v>
       </c>
-      <c r="C296" s="37" t="s">
+      <c r="D296" s="38" t="s">
         <v>891</v>
       </c>
-      <c r="D296" s="38" t="s">
-        <v>892</v>
-      </c>
       <c r="E296" s="39">
         <v>1</v>
       </c>
@@ -12384,7 +12388,7 @@
         <v>1</v>
       </c>
       <c r="I296" s="40" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="16.5">
@@ -12392,13 +12396,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="20" t="s">
+        <v>892</v>
+      </c>
+      <c r="C297" s="15" t="s">
         <v>893</v>
       </c>
-      <c r="C297" s="15" t="s">
-        <v>894</v>
-      </c>
       <c r="D297" s="20" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -12410,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="I297" s="15" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="16.5">
@@ -12418,13 +12422,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="20" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C298" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D298" s="20" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -12436,7 +12440,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="15" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="16.5">
@@ -12444,14 +12448,14 @@
         <v>298</v>
       </c>
       <c r="B299" s="20" t="s">
+        <v>898</v>
+      </c>
+      <c r="C299" s="15" t="s">
         <v>899</v>
       </c>
-      <c r="C299" s="15" t="s">
+      <c r="D299" s="20" t="s">
         <v>900</v>
       </c>
-      <c r="D299" s="20" t="s">
-        <v>901</v>
-      </c>
       <c r="E299">
         <v>0</v>
       </c>
@@ -12462,7 +12466,7 @@
         <v>0</v>
       </c>
       <c r="I299" s="15" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="300" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12470,25 +12474,25 @@
         <v>299</v>
       </c>
       <c r="B300" s="38" t="s">
+        <v>901</v>
+      </c>
+      <c r="C300" s="37" t="s">
         <v>902</v>
       </c>
-      <c r="C300" s="37" t="s">
+      <c r="D300" s="38" t="s">
         <v>903</v>
       </c>
-      <c r="D300" s="38" t="s">
+      <c r="E300" s="39">
+        <v>1</v>
+      </c>
+      <c r="F300" s="39">
+        <v>1</v>
+      </c>
+      <c r="G300" s="39">
+        <v>1</v>
+      </c>
+      <c r="I300" s="40" t="s">
         <v>904</v>
-      </c>
-      <c r="E300" s="39">
-        <v>1</v>
-      </c>
-      <c r="F300" s="39">
-        <v>1</v>
-      </c>
-      <c r="G300" s="39">
-        <v>1</v>
-      </c>
-      <c r="I300" s="40" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12496,13 +12500,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="C301" s="15" t="s">
         <v>909</v>
       </c>
-      <c r="C301" s="15" t="s">
+      <c r="D301" s="18" t="s">
         <v>910</v>
-      </c>
-      <c r="D301" s="18" t="s">
-        <v>911</v>
       </c>
       <c r="E301" s="17">
         <v>0</v>
@@ -12515,7 +12519,7 @@
       </c>
       <c r="H301" s="17"/>
       <c r="I301" s="19" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="302" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12523,13 +12527,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C302" s="15" t="s">
+        <v>912</v>
+      </c>
+      <c r="D302" s="18" t="s">
         <v>913</v>
-      </c>
-      <c r="D302" s="18" t="s">
-        <v>914</v>
       </c>
       <c r="E302" s="17">
         <v>0</v>
@@ -12542,7 +12546,7 @@
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="19" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="303" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12550,10 +12554,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="28" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C303" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D303" s="27"/>
       <c r="E303" s="27">
@@ -12567,7 +12571,7 @@
       </c>
       <c r="H303" s="27"/>
       <c r="I303" s="26" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12575,13 +12579,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="18" t="s">
+        <v>916</v>
+      </c>
+      <c r="C304" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="D304" s="18" t="s">
         <v>917</v>
-      </c>
-      <c r="C304" s="15" t="s">
-        <v>916</v>
-      </c>
-      <c r="D304" s="18" t="s">
-        <v>918</v>
       </c>
       <c r="E304" s="17">
         <v>0</v>
@@ -12594,7 +12598,7 @@
       </c>
       <c r="H304" s="17"/>
       <c r="I304" s="19" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12602,25 +12606,25 @@
         <v>304</v>
       </c>
       <c r="B305" s="38" t="s">
+        <v>918</v>
+      </c>
+      <c r="C305" s="37" t="s">
+        <v>924</v>
+      </c>
+      <c r="D305" s="38" t="s">
         <v>919</v>
       </c>
-      <c r="C305" s="37" t="s">
-        <v>925</v>
-      </c>
-      <c r="D305" s="38" t="s">
+      <c r="E305" s="39">
+        <v>1</v>
+      </c>
+      <c r="F305" s="39">
+        <v>1</v>
+      </c>
+      <c r="G305" s="39">
+        <v>1</v>
+      </c>
+      <c r="I305" s="40" t="s">
         <v>920</v>
-      </c>
-      <c r="E305" s="39">
-        <v>1</v>
-      </c>
-      <c r="F305" s="39">
-        <v>1</v>
-      </c>
-      <c r="G305" s="39">
-        <v>1</v>
-      </c>
-      <c r="I305" s="40" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="21" customFormat="1" ht="16.5">
@@ -12628,13 +12632,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="28" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C306" s="26" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D306" s="28" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E306" s="27">
         <v>1</v>
@@ -12647,7 +12651,7 @@
       </c>
       <c r="H306" s="27"/>
       <c r="I306" s="26" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12655,13 +12659,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="28" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C307" s="26" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D307" s="28" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E307" s="27">
         <v>1</v>
@@ -12674,7 +12678,7 @@
       </c>
       <c r="H307" s="27"/>
       <c r="I307" s="26" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
@@ -12682,13 +12686,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="30" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D308" s="30" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E308" s="32">
         <v>1</v>
@@ -12701,7 +12705,7 @@
       </c>
       <c r="H308" s="32"/>
       <c r="I308" s="33" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="16.5">
@@ -12709,13 +12713,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C309" s="17" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12728,7 +12732,7 @@
       </c>
       <c r="H309" s="17"/>
       <c r="I309" s="19" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="16.5">
@@ -12736,13 +12740,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C310" s="15" t="s">
+        <v>931</v>
+      </c>
+      <c r="D310" s="18" t="s">
         <v>932</v>
-      </c>
-      <c r="D310" s="18" t="s">
-        <v>933</v>
       </c>
       <c r="E310" s="17">
         <v>0</v>
@@ -12755,7 +12759,7 @@
       </c>
       <c r="H310" s="17"/>
       <c r="I310" s="15" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12763,25 +12767,25 @@
         <v>310</v>
       </c>
       <c r="B311" s="38" t="s">
+        <v>940</v>
+      </c>
+      <c r="C311" s="37" t="s">
         <v>941</v>
       </c>
-      <c r="C311" s="37" t="s">
+      <c r="D311" s="38" t="s">
+        <v>939</v>
+      </c>
+      <c r="E311" s="39">
+        <v>1</v>
+      </c>
+      <c r="F311" s="39">
+        <v>1</v>
+      </c>
+      <c r="G311" s="39">
+        <v>1</v>
+      </c>
+      <c r="I311" s="37" t="s">
         <v>942</v>
-      </c>
-      <c r="D311" s="38" t="s">
-        <v>940</v>
-      </c>
-      <c r="E311" s="39">
-        <v>1</v>
-      </c>
-      <c r="F311" s="39">
-        <v>1</v>
-      </c>
-      <c r="G311" s="39">
-        <v>1</v>
-      </c>
-      <c r="I311" s="37" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16.5">
@@ -12789,13 +12793,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>943</v>
+      </c>
+      <c r="C312" s="15" t="s">
+        <v>945</v>
+      </c>
+      <c r="D312" s="18" t="s">
         <v>944</v>
-      </c>
-      <c r="C312" s="15" t="s">
-        <v>946</v>
-      </c>
-      <c r="D312" s="18" t="s">
-        <v>945</v>
       </c>
       <c r="E312" s="17">
         <v>1</v>
@@ -12808,7 +12812,7 @@
       </c>
       <c r="H312" s="17"/>
       <c r="I312" s="15" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12816,14 +12820,14 @@
         <v>312</v>
       </c>
       <c r="B313" s="18" t="s">
+        <v>950</v>
+      </c>
+      <c r="C313" s="15" t="s">
+        <v>949</v>
+      </c>
+      <c r="D313" s="18" t="s">
         <v>951</v>
       </c>
-      <c r="C313" s="15" t="s">
-        <v>950</v>
-      </c>
-      <c r="D313" s="18" t="s">
-        <v>952</v>
-      </c>
       <c r="E313" s="17">
         <v>1</v>
       </c>
@@ -12834,7 +12838,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="15" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12842,13 +12846,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="C314" s="15" t="s">
         <v>957</v>
       </c>
-      <c r="C314" s="15" t="s">
+      <c r="D314" s="18" t="s">
         <v>958</v>
-      </c>
-      <c r="D314" s="18" t="s">
-        <v>959</v>
       </c>
       <c r="E314" s="17">
         <v>0</v>
@@ -12865,13 +12869,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="34" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C315" s="15" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D315" s="20" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E315" s="17">
         <v>1</v>
@@ -12883,7 +12887,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="17.25">
@@ -12891,13 +12895,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="34" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C316" s="15" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D316" s="34" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E316" s="17">
         <v>1</v>
@@ -12909,7 +12913,7 @@
         <v>1</v>
       </c>
       <c r="I316" s="19" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="16.5">
@@ -12917,13 +12921,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="28" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C317" s="26" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D317" s="28" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E317" s="27">
         <v>1</v>
@@ -12936,7 +12940,7 @@
       </c>
       <c r="H317" s="27"/>
       <c r="I317" s="41" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="17.25">
@@ -12944,13 +12948,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="42" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C318" s="26" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D318" s="42" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E318" s="27">
         <v>1</v>
@@ -12963,7 +12967,7 @@
       </c>
       <c r="H318" s="27"/>
       <c r="I318" s="26" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
@@ -12971,10 +12975,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="28" t="s">
+        <v>976</v>
+      </c>
+      <c r="C319" s="26" t="s">
         <v>977</v>
-      </c>
-      <c r="C319" s="26" t="s">
-        <v>978</v>
       </c>
       <c r="D319" s="27"/>
       <c r="E319" s="27">
@@ -12988,7 +12992,7 @@
       </c>
       <c r="H319" s="27"/>
       <c r="I319" s="26" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
@@ -12996,10 +13000,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="28" t="s">
+        <v>978</v>
+      </c>
+      <c r="C320" s="26" t="s">
         <v>979</v>
-      </c>
-      <c r="C320" s="26" t="s">
-        <v>980</v>
       </c>
       <c r="D320" s="27"/>
       <c r="E320" s="27">
@@ -13013,7 +13017,7 @@
       </c>
       <c r="H320" s="27"/>
       <c r="I320" s="26" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
   </sheetData>
@@ -13040,7 +13044,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_1.26/game_module_config.xlsx
+++ b/config_1.26/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="984">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4005,10 +4005,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_ty_by_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_039_TY_BY_HHLManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4034,10 +4030,6 @@
   </si>
   <si>
     <t>活动模板，永久</t>
-  </si>
-  <si>
-    <t>活动模板，永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>sys_act_czzk</t>
@@ -4179,21 +4171,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_ty_sjb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_sjb_style/act_001_ygbd</t>
-  </si>
-  <si>
     <t>阳光榜单</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_ty_sjb_style/act_002_bzphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>爆竹排行榜</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4215,6 +4196,30 @@
   </si>
   <si>
     <t>Act_TYBYDROPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_001_ygbd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_002_bzphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动模板，永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8号</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4326,7 +4331,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4387,6 +4392,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4419,7 +4436,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4510,16 +4527,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4560,6 +4571,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4838,13 +4870,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I320"/>
+  <dimension ref="A1:P320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C301" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C298" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D309" sqref="D309"/>
+      <selection pane="bottomRight" activeCell="A321" sqref="A321:XFD322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6551,29 +6583,29 @@
         <v>647</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="44" customFormat="1" ht="16.5">
-      <c r="A66" s="43">
+    <row r="66" spans="1:9" s="42" customFormat="1" ht="16.5">
+      <c r="A66" s="41">
         <v>65</v>
       </c>
-      <c r="B66" s="43" t="s">
-        <v>980</v>
-      </c>
-      <c r="C66" s="43" t="s">
+      <c r="B66" s="41" t="s">
+        <v>975</v>
+      </c>
+      <c r="C66" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E66" s="43">
-        <v>0</v>
-      </c>
-      <c r="F66" s="44">
-        <v>0</v>
-      </c>
-      <c r="G66" s="44">
-        <v>0</v>
-      </c>
-      <c r="I66" s="46" t="s">
+      <c r="E66" s="41">
+        <v>0</v>
+      </c>
+      <c r="F66" s="42">
+        <v>0</v>
+      </c>
+      <c r="G66" s="42">
+        <v>0</v>
+      </c>
+      <c r="I66" s="44" t="s">
         <v>645</v>
       </c>
     </row>
@@ -6785,29 +6817,29 @@
         <v>645</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="44" customFormat="1" ht="16.5">
-      <c r="A75" s="43">
+    <row r="75" spans="1:9" s="42" customFormat="1" ht="16.5">
+      <c r="A75" s="41">
         <v>74</v>
       </c>
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="41" t="s">
         <v>659</v>
       </c>
-      <c r="C75" s="43" t="s">
+      <c r="C75" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="D75" s="43" t="s">
+      <c r="D75" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="E75" s="43">
-        <v>0</v>
-      </c>
-      <c r="F75" s="44">
-        <v>0</v>
-      </c>
-      <c r="G75" s="44">
-        <v>0</v>
-      </c>
-      <c r="I75" s="45" t="s">
+      <c r="E75" s="41">
+        <v>0</v>
+      </c>
+      <c r="F75" s="42">
+        <v>0</v>
+      </c>
+      <c r="G75" s="42">
+        <v>0</v>
+      </c>
+      <c r="I75" s="43" t="s">
         <v>647</v>
       </c>
     </row>
@@ -11274,26 +11306,26 @@
       <c r="A254" s="16">
         <v>253</v>
       </c>
-      <c r="B254" s="31" t="s">
-        <v>978</v>
-      </c>
-      <c r="C254" s="32" t="s">
+      <c r="B254" s="30" t="s">
+        <v>973</v>
+      </c>
+      <c r="C254" s="31" t="s">
         <v>741</v>
       </c>
-      <c r="D254" s="31" t="s">
-        <v>979</v>
-      </c>
-      <c r="E254" s="32">
-        <v>0</v>
-      </c>
-      <c r="F254" s="32">
-        <v>0</v>
-      </c>
-      <c r="G254" s="32">
-        <v>0</v>
-      </c>
-      <c r="H254" s="32"/>
-      <c r="I254" s="31" t="s">
+      <c r="D254" s="30" t="s">
+        <v>974</v>
+      </c>
+      <c r="E254" s="31">
+        <v>0</v>
+      </c>
+      <c r="F254" s="31">
+        <v>0</v>
+      </c>
+      <c r="G254" s="31">
+        <v>0</v>
+      </c>
+      <c r="H254" s="31"/>
+      <c r="I254" s="30" t="s">
         <v>738</v>
       </c>
     </row>
@@ -11909,7 +11941,7 @@
       <c r="C278" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="D278" s="35" t="s">
+      <c r="D278" s="33" t="s">
         <v>826</v>
       </c>
       <c r="E278" s="15">
@@ -12053,55 +12085,55 @@
         <v>841</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="39" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A284" s="36">
+    <row r="284" spans="1:9" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A284" s="34">
         <v>283</v>
       </c>
-      <c r="B284" s="38" t="s">
+      <c r="B284" s="36" t="s">
         <v>842</v>
       </c>
-      <c r="C284" s="37" t="s">
+      <c r="C284" s="35" t="s">
         <v>843</v>
       </c>
-      <c r="D284" s="38" t="s">
+      <c r="D284" s="36" t="s">
         <v>844</v>
       </c>
-      <c r="E284" s="39">
-        <v>1</v>
-      </c>
-      <c r="F284" s="39">
-        <v>1</v>
-      </c>
-      <c r="G284" s="39">
-        <v>1</v>
-      </c>
-      <c r="I284" s="40" t="s">
+      <c r="E284" s="37">
+        <v>1</v>
+      </c>
+      <c r="F284" s="37">
+        <v>1</v>
+      </c>
+      <c r="G284" s="37">
+        <v>1</v>
+      </c>
+      <c r="I284" s="38" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A285" s="36">
+    <row r="285" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="A285" s="34">
         <v>284</v>
       </c>
-      <c r="B285" s="38" t="s">
+      <c r="B285" s="36" t="s">
         <v>850</v>
       </c>
-      <c r="C285" s="37" t="s">
+      <c r="C285" s="35" t="s">
         <v>851</v>
       </c>
-      <c r="D285" s="38" t="s">
+      <c r="D285" s="36" t="s">
         <v>849</v>
       </c>
-      <c r="E285" s="39">
-        <v>1</v>
-      </c>
-      <c r="F285" s="39">
-        <v>1</v>
-      </c>
-      <c r="G285" s="39">
-        <v>1</v>
-      </c>
-      <c r="I285" s="40" t="s">
+      <c r="E285" s="37">
+        <v>1</v>
+      </c>
+      <c r="F285" s="37">
+        <v>1</v>
+      </c>
+      <c r="G285" s="37">
+        <v>1</v>
+      </c>
+      <c r="I285" s="38" t="s">
         <v>644</v>
       </c>
     </row>
@@ -12131,59 +12163,59 @@
         <v>856</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A287" s="36">
+    <row r="287" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="A287" s="34">
         <v>286</v>
       </c>
-      <c r="B287" s="37" t="s">
+      <c r="B287" s="35" t="s">
         <v>858</v>
       </c>
-      <c r="C287" s="37" t="s">
+      <c r="C287" s="35" t="s">
         <v>859</v>
       </c>
-      <c r="D287" s="38" t="s">
+      <c r="D287" s="36" t="s">
         <v>857</v>
       </c>
-      <c r="E287" s="39">
-        <v>1</v>
-      </c>
-      <c r="F287" s="39">
-        <v>1</v>
-      </c>
-      <c r="G287" s="39">
-        <v>1</v>
-      </c>
-      <c r="I287" s="40" t="s">
+      <c r="E287" s="37">
+        <v>1</v>
+      </c>
+      <c r="F287" s="37">
+        <v>1</v>
+      </c>
+      <c r="G287" s="37">
+        <v>1</v>
+      </c>
+      <c r="I287" s="38" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A288" s="36">
+    <row r="288" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="A288" s="34">
         <v>287</v>
       </c>
-      <c r="B288" s="37" t="s">
+      <c r="B288" s="35" t="s">
         <v>860</v>
       </c>
-      <c r="C288" s="37" t="s">
+      <c r="C288" s="35" t="s">
         <v>861</v>
       </c>
-      <c r="D288" s="38" t="s">
+      <c r="D288" s="36" t="s">
         <v>862</v>
       </c>
-      <c r="E288" s="39">
-        <v>1</v>
-      </c>
-      <c r="F288" s="39">
-        <v>1</v>
-      </c>
-      <c r="G288" s="39">
-        <v>1</v>
-      </c>
-      <c r="I288" s="40" t="s">
+      <c r="E288" s="37">
+        <v>1</v>
+      </c>
+      <c r="F288" s="37">
+        <v>1</v>
+      </c>
+      <c r="G288" s="37">
+        <v>1</v>
+      </c>
+      <c r="I288" s="38" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="289" spans="1:9" s="21" customFormat="1" ht="16.5">
+    <row r="289" spans="1:16" s="21" customFormat="1" ht="16.5">
       <c r="A289" s="16">
         <v>288</v>
       </c>
@@ -12210,189 +12242,189 @@
         <v>865</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A290" s="36">
+    <row r="290" spans="1:16" s="37" customFormat="1" ht="16.5">
+      <c r="A290" s="34">
         <v>289</v>
       </c>
-      <c r="B290" s="37" t="s">
+      <c r="B290" s="35" t="s">
         <v>868</v>
       </c>
-      <c r="C290" s="37" t="s">
+      <c r="C290" s="35" t="s">
         <v>869</v>
       </c>
-      <c r="D290" s="38" t="s">
+      <c r="D290" s="36" t="s">
         <v>870</v>
       </c>
-      <c r="E290" s="39">
-        <v>1</v>
-      </c>
-      <c r="F290" s="39">
-        <v>1</v>
-      </c>
-      <c r="G290" s="39">
-        <v>1</v>
-      </c>
-      <c r="I290" s="40" t="s">
+      <c r="E290" s="37">
+        <v>1</v>
+      </c>
+      <c r="F290" s="37">
+        <v>1</v>
+      </c>
+      <c r="G290" s="37">
+        <v>1</v>
+      </c>
+      <c r="I290" s="38" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="291" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A291" s="36">
+    <row r="291" spans="1:16" s="37" customFormat="1" ht="16.5">
+      <c r="A291" s="34">
         <v>290</v>
       </c>
-      <c r="B291" s="38" t="s">
+      <c r="B291" s="36" t="s">
         <v>872</v>
       </c>
-      <c r="C291" s="37" t="s">
+      <c r="C291" s="35" t="s">
         <v>873</v>
       </c>
-      <c r="D291" s="38" t="s">
+      <c r="D291" s="36" t="s">
         <v>874</v>
       </c>
-      <c r="E291" s="39">
-        <v>1</v>
-      </c>
-      <c r="F291" s="39">
-        <v>1</v>
-      </c>
-      <c r="G291" s="39">
-        <v>1</v>
-      </c>
-      <c r="I291" s="40" t="s">
+      <c r="E291" s="37">
+        <v>1</v>
+      </c>
+      <c r="F291" s="37">
+        <v>1</v>
+      </c>
+      <c r="G291" s="37">
+        <v>1</v>
+      </c>
+      <c r="I291" s="38" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="292" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A292" s="36">
+    <row r="292" spans="1:16" s="37" customFormat="1" ht="16.5">
+      <c r="A292" s="34">
         <v>291</v>
       </c>
-      <c r="B292" s="38" t="s">
+      <c r="B292" s="36" t="s">
         <v>876</v>
       </c>
-      <c r="C292" s="37" t="s">
+      <c r="C292" s="35" t="s">
         <v>877</v>
       </c>
-      <c r="D292" s="38" t="s">
+      <c r="D292" s="36" t="s">
         <v>878</v>
       </c>
-      <c r="E292" s="39">
-        <v>1</v>
-      </c>
-      <c r="F292" s="39">
-        <v>1</v>
-      </c>
-      <c r="G292" s="39">
-        <v>1</v>
-      </c>
-      <c r="I292" s="40" t="s">
+      <c r="E292" s="37">
+        <v>1</v>
+      </c>
+      <c r="F292" s="37">
+        <v>1</v>
+      </c>
+      <c r="G292" s="37">
+        <v>1</v>
+      </c>
+      <c r="I292" s="38" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="293" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A293" s="36">
+    <row r="293" spans="1:16" s="37" customFormat="1" ht="16.5">
+      <c r="A293" s="34">
         <v>292</v>
       </c>
-      <c r="B293" s="38" t="s">
+      <c r="B293" s="36" t="s">
         <v>879</v>
       </c>
-      <c r="C293" s="37" t="s">
+      <c r="C293" s="35" t="s">
         <v>884</v>
       </c>
-      <c r="D293" s="38" t="s">
+      <c r="D293" s="36" t="s">
         <v>881</v>
       </c>
-      <c r="E293" s="39">
-        <v>1</v>
-      </c>
-      <c r="F293" s="39">
-        <v>1</v>
-      </c>
-      <c r="G293" s="39">
-        <v>1</v>
-      </c>
-      <c r="I293" s="40" t="s">
+      <c r="E293" s="37">
+        <v>1</v>
+      </c>
+      <c r="F293" s="37">
+        <v>1</v>
+      </c>
+      <c r="G293" s="37">
+        <v>1</v>
+      </c>
+      <c r="I293" s="38" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="294" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A294" s="36">
+    <row r="294" spans="1:16" s="37" customFormat="1" ht="16.5">
+      <c r="A294" s="34">
         <v>293</v>
       </c>
-      <c r="B294" s="38" t="s">
+      <c r="B294" s="36" t="s">
         <v>880</v>
       </c>
-      <c r="C294" s="37" t="s">
+      <c r="C294" s="35" t="s">
         <v>885</v>
       </c>
-      <c r="D294" s="38" t="s">
+      <c r="D294" s="36" t="s">
         <v>882</v>
       </c>
-      <c r="E294" s="39">
-        <v>1</v>
-      </c>
-      <c r="F294" s="39">
-        <v>1</v>
-      </c>
-      <c r="G294" s="39">
-        <v>1</v>
-      </c>
-      <c r="I294" s="40" t="s">
+      <c r="E294" s="37">
+        <v>1</v>
+      </c>
+      <c r="F294" s="37">
+        <v>1</v>
+      </c>
+      <c r="G294" s="37">
+        <v>1</v>
+      </c>
+      <c r="I294" s="38" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="295" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A295" s="36">
+    <row r="295" spans="1:16" s="37" customFormat="1" ht="16.5">
+      <c r="A295" s="34">
         <v>294</v>
       </c>
-      <c r="B295" s="38" t="s">
+      <c r="B295" s="36" t="s">
         <v>886</v>
       </c>
-      <c r="C295" s="37" t="s">
+      <c r="C295" s="35" t="s">
         <v>887</v>
       </c>
-      <c r="D295" s="38" t="s">
+      <c r="D295" s="36" t="s">
         <v>888</v>
       </c>
-      <c r="E295" s="39">
-        <v>1</v>
-      </c>
-      <c r="F295" s="39">
-        <v>1</v>
-      </c>
-      <c r="G295" s="39">
-        <v>1</v>
-      </c>
-      <c r="I295" s="40" t="s">
+      <c r="E295" s="37">
+        <v>1</v>
+      </c>
+      <c r="F295" s="37">
+        <v>1</v>
+      </c>
+      <c r="G295" s="37">
+        <v>1</v>
+      </c>
+      <c r="I295" s="38" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="296" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A296" s="36">
+    <row r="296" spans="1:16" s="37" customFormat="1" ht="16.5">
+      <c r="A296" s="34">
         <v>295</v>
       </c>
-      <c r="B296" s="38" t="s">
+      <c r="B296" s="36" t="s">
         <v>889</v>
       </c>
-      <c r="C296" s="37" t="s">
+      <c r="C296" s="35" t="s">
         <v>890</v>
       </c>
-      <c r="D296" s="38" t="s">
+      <c r="D296" s="36" t="s">
         <v>891</v>
       </c>
-      <c r="E296" s="39">
-        <v>1</v>
-      </c>
-      <c r="F296" s="39">
-        <v>1</v>
-      </c>
-      <c r="G296" s="39">
-        <v>1</v>
-      </c>
-      <c r="I296" s="40" t="s">
+      <c r="E296" s="37">
+        <v>1</v>
+      </c>
+      <c r="F296" s="37">
+        <v>1</v>
+      </c>
+      <c r="G296" s="37">
+        <v>1</v>
+      </c>
+      <c r="I296" s="38" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="16.5">
+    <row r="297" spans="1:16" ht="16.5">
       <c r="A297" s="16">
         <v>296</v>
       </c>
@@ -12418,7 +12450,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="16.5">
+    <row r="298" spans="1:16" ht="16.5">
       <c r="A298" s="16">
         <v>297</v>
       </c>
@@ -12444,7 +12476,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="16.5">
+    <row r="299" spans="1:16" ht="16.5">
       <c r="A299" s="16">
         <v>298</v>
       </c>
@@ -12470,33 +12502,34 @@
         <v>907</v>
       </c>
     </row>
-    <row r="300" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A300" s="36">
+    <row r="300" spans="1:16" s="17" customFormat="1" ht="16.5">
+      <c r="A300" s="16">
         <v>299</v>
       </c>
-      <c r="B300" s="38" t="s">
+      <c r="B300" s="36" t="s">
         <v>901</v>
       </c>
-      <c r="C300" s="37" t="s">
+      <c r="C300" s="35" t="s">
         <v>902</v>
       </c>
-      <c r="D300" s="38" t="s">
+      <c r="D300" s="36" t="s">
         <v>903</v>
       </c>
-      <c r="E300" s="39">
-        <v>1</v>
-      </c>
-      <c r="F300" s="39">
-        <v>1</v>
-      </c>
-      <c r="G300" s="39">
-        <v>1</v>
-      </c>
-      <c r="I300" s="40" t="s">
+      <c r="E300" s="37">
+        <v>1</v>
+      </c>
+      <c r="F300" s="37">
+        <v>1</v>
+      </c>
+      <c r="G300" s="37">
+        <v>1</v>
+      </c>
+      <c r="H300" s="37"/>
+      <c r="I300" s="38" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="301" spans="1:9" s="23" customFormat="1" ht="16.5">
+    <row r="301" spans="1:16" s="23" customFormat="1" ht="16.5">
       <c r="A301" s="16">
         <v>300</v>
       </c>
@@ -12522,8 +12555,15 @@
       <c r="I301" s="19" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" s="23" customFormat="1" ht="16.5">
+      <c r="J301" s="17"/>
+      <c r="K301" s="17"/>
+      <c r="L301" s="17"/>
+      <c r="M301" s="17"/>
+      <c r="N301" s="17"/>
+      <c r="O301" s="17"/>
+      <c r="P301" s="17"/>
+    </row>
+    <row r="302" spans="1:16" s="23" customFormat="1" ht="16.5">
       <c r="A302" s="16">
         <v>301</v>
       </c>
@@ -12549,33 +12589,38 @@
       <c r="I302" s="19" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" s="23" customFormat="1" ht="16.5">
+      <c r="J302" s="17"/>
+      <c r="K302" s="17"/>
+      <c r="L302" s="17"/>
+      <c r="M302" s="17"/>
+      <c r="N302" s="17"/>
+      <c r="O302" s="17"/>
+      <c r="P302" s="17"/>
+    </row>
+    <row r="303" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A303" s="16">
         <v>302</v>
       </c>
-      <c r="B303" s="28" t="s">
+      <c r="B303" s="18" t="s">
         <v>933</v>
       </c>
-      <c r="C303" s="26" t="s">
+      <c r="C303" s="15" t="s">
         <v>935</v>
       </c>
-      <c r="D303" s="27"/>
-      <c r="E303" s="27">
-        <v>1</v>
-      </c>
-      <c r="F303" s="27">
-        <v>1</v>
-      </c>
-      <c r="G303" s="27">
-        <v>1</v>
-      </c>
-      <c r="H303" s="27"/>
-      <c r="I303" s="26" t="s">
+      <c r="E303" s="17">
+        <v>1</v>
+      </c>
+      <c r="F303" s="17">
+        <v>1</v>
+      </c>
+      <c r="G303" s="17">
+        <v>1</v>
+      </c>
+      <c r="I303" s="15" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="304" spans="1:9" s="23" customFormat="1" ht="16.5">
+    <row r="304" spans="1:16" s="23" customFormat="1" ht="16.5">
       <c r="A304" s="16">
         <v>303</v>
       </c>
@@ -12601,111 +12646,119 @@
       <c r="I304" s="19" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A305" s="36">
+      <c r="J304" s="17"/>
+      <c r="K304" s="17"/>
+      <c r="L304" s="17"/>
+      <c r="M304" s="17"/>
+      <c r="N304" s="17"/>
+      <c r="O304" s="17"/>
+      <c r="P304" s="17"/>
+    </row>
+    <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="38" t="s">
+      <c r="B305" s="36" t="s">
         <v>918</v>
       </c>
-      <c r="C305" s="37" t="s">
+      <c r="C305" s="35" t="s">
         <v>923</v>
       </c>
-      <c r="D305" s="38" t="s">
+      <c r="D305" s="36" t="s">
         <v>919</v>
       </c>
-      <c r="E305" s="39">
-        <v>1</v>
-      </c>
-      <c r="F305" s="39">
-        <v>1</v>
-      </c>
-      <c r="G305" s="39">
-        <v>1</v>
-      </c>
-      <c r="I305" s="40" t="s">
+      <c r="E305" s="37">
+        <v>1</v>
+      </c>
+      <c r="F305" s="37">
+        <v>1</v>
+      </c>
+      <c r="G305" s="37">
+        <v>1</v>
+      </c>
+      <c r="H305" s="37"/>
+      <c r="I305" s="38" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="21" customFormat="1" ht="16.5">
+    <row r="306" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="28" t="s">
+      <c r="B306" s="45" t="s">
+        <v>980</v>
+      </c>
+      <c r="C306" s="46" t="s">
+        <v>949</v>
+      </c>
+      <c r="D306" s="45" t="s">
         <v>945</v>
       </c>
-      <c r="C306" s="26" t="s">
-        <v>950</v>
-      </c>
-      <c r="D306" s="28" t="s">
-        <v>946</v>
-      </c>
-      <c r="E306" s="27">
-        <v>1</v>
-      </c>
-      <c r="F306" s="27">
-        <v>1</v>
-      </c>
-      <c r="G306" s="27">
-        <v>1</v>
-      </c>
-      <c r="H306" s="27"/>
-      <c r="I306" s="26" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" ht="16.5">
+      <c r="E306" s="47">
+        <v>1</v>
+      </c>
+      <c r="F306" s="47">
+        <v>1</v>
+      </c>
+      <c r="G306" s="47">
+        <v>1</v>
+      </c>
+      <c r="H306" s="47"/>
+      <c r="I306" s="46" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A307" s="16">
         <v>306</v>
       </c>
-      <c r="B307" s="28" t="s">
-        <v>973</v>
-      </c>
-      <c r="C307" s="26" t="s">
+      <c r="B307" s="45" t="s">
+        <v>981</v>
+      </c>
+      <c r="C307" s="46" t="s">
+        <v>950</v>
+      </c>
+      <c r="D307" s="45" t="s">
+        <v>921</v>
+      </c>
+      <c r="E307" s="47">
+        <v>1</v>
+      </c>
+      <c r="F307" s="47">
+        <v>1</v>
+      </c>
+      <c r="G307" s="47">
+        <v>1</v>
+      </c>
+      <c r="H307" s="47"/>
+      <c r="I307" s="46" t="s">
         <v>951</v>
       </c>
-      <c r="D307" s="28" t="s">
-        <v>921</v>
-      </c>
-      <c r="E307" s="27">
-        <v>1</v>
-      </c>
-      <c r="F307" s="27">
-        <v>1</v>
-      </c>
-      <c r="G307" s="27">
-        <v>1</v>
-      </c>
-      <c r="H307" s="27"/>
-      <c r="I307" s="26" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" ht="16.5">
+    </row>
+    <row r="308" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="30" t="s">
-        <v>981</v>
-      </c>
-      <c r="C308" s="30" t="s">
-        <v>957</v>
-      </c>
-      <c r="D308" s="30" t="s">
-        <v>982</v>
-      </c>
-      <c r="E308" s="32">
-        <v>1</v>
-      </c>
-      <c r="F308" s="32">
-        <v>1</v>
-      </c>
-      <c r="G308" s="32">
-        <v>1</v>
-      </c>
-      <c r="H308" s="32"/>
-      <c r="I308" s="33" t="s">
+      <c r="B308" s="45" t="s">
+        <v>976</v>
+      </c>
+      <c r="C308" s="45" t="s">
+        <v>955</v>
+      </c>
+      <c r="D308" s="45" t="s">
+        <v>977</v>
+      </c>
+      <c r="E308" s="47">
+        <v>1</v>
+      </c>
+      <c r="F308" s="47">
+        <v>1</v>
+      </c>
+      <c r="G308" s="47">
+        <v>1</v>
+      </c>
+      <c r="H308" s="47"/>
+      <c r="I308" s="48" t="s">
         <v>644</v>
       </c>
     </row>
@@ -12763,29 +12816,30 @@
         <v>929</v>
       </c>
     </row>
-    <row r="311" spans="1:9" s="39" customFormat="1" ht="16.5">
-      <c r="A311" s="36">
+    <row r="311" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="38" t="s">
+      <c r="B311" s="36" t="s">
         <v>939</v>
       </c>
-      <c r="C311" s="37" t="s">
+      <c r="C311" s="35" t="s">
         <v>940</v>
       </c>
-      <c r="D311" s="38" t="s">
+      <c r="D311" s="36" t="s">
         <v>938</v>
       </c>
-      <c r="E311" s="39">
-        <v>1</v>
-      </c>
-      <c r="F311" s="39">
-        <v>1</v>
-      </c>
-      <c r="G311" s="39">
-        <v>1</v>
-      </c>
-      <c r="I311" s="37" t="s">
+      <c r="E311" s="37">
+        <v>1</v>
+      </c>
+      <c r="F311" s="37">
+        <v>1</v>
+      </c>
+      <c r="G311" s="37">
+        <v>1</v>
+      </c>
+      <c r="H311" s="37"/>
+      <c r="I311" s="35" t="s">
         <v>941</v>
       </c>
     </row>
@@ -12793,53 +12847,54 @@
       <c r="A312" s="16">
         <v>311</v>
       </c>
-      <c r="B312" s="18" t="s">
+      <c r="B312" s="36" t="s">
         <v>942</v>
       </c>
-      <c r="C312" s="15" t="s">
+      <c r="C312" s="35" t="s">
         <v>944</v>
       </c>
-      <c r="D312" s="18" t="s">
+      <c r="D312" s="36" t="s">
         <v>943</v>
       </c>
-      <c r="E312" s="17">
-        <v>1</v>
-      </c>
-      <c r="F312" s="17">
-        <v>1</v>
-      </c>
-      <c r="G312" s="17">
-        <v>1</v>
-      </c>
-      <c r="H312" s="17"/>
-      <c r="I312" s="15" t="s">
-        <v>952</v>
+      <c r="E312" s="37">
+        <v>1</v>
+      </c>
+      <c r="F312" s="37">
+        <v>1</v>
+      </c>
+      <c r="G312" s="37">
+        <v>1</v>
+      </c>
+      <c r="H312" s="37"/>
+      <c r="I312" s="35" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A313" s="16">
         <v>312</v>
       </c>
-      <c r="B313" s="18" t="s">
+      <c r="B313" s="36" t="s">
+        <v>947</v>
+      </c>
+      <c r="C313" s="35" t="s">
+        <v>946</v>
+      </c>
+      <c r="D313" s="36" t="s">
         <v>948</v>
       </c>
-      <c r="C313" s="15" t="s">
-        <v>947</v>
-      </c>
-      <c r="D313" s="18" t="s">
-        <v>949</v>
-      </c>
-      <c r="E313" s="17">
-        <v>1</v>
-      </c>
-      <c r="F313" s="17">
-        <v>1</v>
-      </c>
-      <c r="G313" s="17">
-        <v>1</v>
-      </c>
-      <c r="I313" s="15" t="s">
-        <v>953</v>
+      <c r="E313" s="37">
+        <v>1</v>
+      </c>
+      <c r="F313" s="37">
+        <v>1</v>
+      </c>
+      <c r="G313" s="37">
+        <v>1</v>
+      </c>
+      <c r="H313" s="37"/>
+      <c r="I313" s="35" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12847,13 +12902,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="18" t="s">
+        <v>952</v>
+      </c>
+      <c r="C314" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="D314" s="18" t="s">
         <v>954</v>
-      </c>
-      <c r="C314" s="15" t="s">
-        <v>955</v>
-      </c>
-      <c r="D314" s="18" t="s">
-        <v>956</v>
       </c>
       <c r="E314" s="17">
         <v>0</v>
@@ -12869,40 +12924,40 @@
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="34" t="s">
+      <c r="B315" s="32" t="s">
+        <v>956</v>
+      </c>
+      <c r="C315" s="15" t="s">
         <v>958</v>
       </c>
-      <c r="C315" s="15" t="s">
+      <c r="D315" s="20" t="s">
+        <v>961</v>
+      </c>
+      <c r="E315" s="17">
+        <v>1</v>
+      </c>
+      <c r="F315" s="17">
+        <v>1</v>
+      </c>
+      <c r="G315" s="17">
+        <v>1</v>
+      </c>
+      <c r="I315" s="9" t="s">
         <v>960</v>
-      </c>
-      <c r="D315" s="20" t="s">
-        <v>963</v>
-      </c>
-      <c r="E315" s="17">
-        <v>1</v>
-      </c>
-      <c r="F315" s="17">
-        <v>1</v>
-      </c>
-      <c r="G315" s="17">
-        <v>1</v>
-      </c>
-      <c r="I315" s="9" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="17.25">
       <c r="A316" s="16">
         <v>315</v>
       </c>
-      <c r="B316" s="34" t="s">
+      <c r="B316" s="32" t="s">
+        <v>957</v>
+      </c>
+      <c r="C316" s="15" t="s">
         <v>959</v>
       </c>
-      <c r="C316" s="15" t="s">
-        <v>961</v>
-      </c>
-      <c r="D316" s="34" t="s">
-        <v>967</v>
+      <c r="D316" s="32" t="s">
+        <v>965</v>
       </c>
       <c r="E316" s="17">
         <v>1</v>
@@ -12922,40 +12977,40 @@
         <v>316</v>
       </c>
       <c r="B317" s="28" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C317" s="26" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D317" s="28" t="s">
+        <v>962</v>
+      </c>
+      <c r="E317" s="27">
+        <v>1</v>
+      </c>
+      <c r="F317" s="27">
+        <v>1</v>
+      </c>
+      <c r="G317" s="27">
+        <v>1</v>
+      </c>
+      <c r="H317" s="27"/>
+      <c r="I317" s="39" t="s">
         <v>964</v>
-      </c>
-      <c r="E317" s="27">
-        <v>1</v>
-      </c>
-      <c r="F317" s="27">
-        <v>1</v>
-      </c>
-      <c r="G317" s="27">
-        <v>1</v>
-      </c>
-      <c r="H317" s="27"/>
-      <c r="I317" s="41" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="17.25">
       <c r="A318" s="16">
         <v>317</v>
       </c>
-      <c r="B318" s="42" t="s">
-        <v>972</v>
+      <c r="B318" s="40" t="s">
+        <v>970</v>
       </c>
       <c r="C318" s="26" t="s">
-        <v>969</v>
-      </c>
-      <c r="D318" s="42" t="s">
-        <v>968</v>
+        <v>967</v>
+      </c>
+      <c r="D318" s="40" t="s">
+        <v>966</v>
       </c>
       <c r="E318" s="27">
         <v>1</v>
@@ -12968,57 +13023,57 @@
       </c>
       <c r="H318" s="27"/>
       <c r="I318" s="26" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
       <c r="A319" s="16">
         <v>318</v>
       </c>
-      <c r="B319" s="28" t="s">
-        <v>974</v>
-      </c>
-      <c r="C319" s="26" t="s">
-        <v>975</v>
-      </c>
-      <c r="D319" s="27"/>
-      <c r="E319" s="27">
-        <v>1</v>
-      </c>
-      <c r="F319" s="27">
-        <v>1</v>
-      </c>
-      <c r="G319" s="27">
-        <v>1</v>
-      </c>
-      <c r="H319" s="27"/>
-      <c r="I319" s="26" t="s">
-        <v>970</v>
+      <c r="B319" s="50" t="s">
+        <v>978</v>
+      </c>
+      <c r="C319" s="51" t="s">
+        <v>971</v>
+      </c>
+      <c r="D319" s="49"/>
+      <c r="E319" s="49">
+        <v>1</v>
+      </c>
+      <c r="F319" s="49">
+        <v>1</v>
+      </c>
+      <c r="G319" s="49">
+        <v>1</v>
+      </c>
+      <c r="H319" s="49"/>
+      <c r="I319" s="51" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
       <c r="A320" s="16">
         <v>319</v>
       </c>
-      <c r="B320" s="28" t="s">
-        <v>976</v>
-      </c>
-      <c r="C320" s="26" t="s">
-        <v>977</v>
-      </c>
-      <c r="D320" s="27"/>
-      <c r="E320" s="27">
-        <v>1</v>
-      </c>
-      <c r="F320" s="27">
-        <v>1</v>
-      </c>
-      <c r="G320" s="27">
-        <v>1</v>
-      </c>
-      <c r="H320" s="27"/>
-      <c r="I320" s="26" t="s">
-        <v>970</v>
+      <c r="B320" s="50" t="s">
+        <v>979</v>
+      </c>
+      <c r="C320" s="51" t="s">
+        <v>972</v>
+      </c>
+      <c r="D320" s="49"/>
+      <c r="E320" s="49">
+        <v>1</v>
+      </c>
+      <c r="F320" s="49">
+        <v>1</v>
+      </c>
+      <c r="G320" s="49">
+        <v>1</v>
+      </c>
+      <c r="H320" s="49"/>
+      <c r="I320" s="51" t="s">
+        <v>983</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.26/game_module_config.xlsx
+++ b/config_1.26/game_module_config.xlsx
@@ -3879,9 +3879,6 @@
     <t>Act_039_JZSJBManager</t>
   </si>
   <si>
-    <t>Act_039_TYBYDROPManager</t>
-  </si>
-  <si>
     <t>12月28日23:59:59</t>
   </si>
   <si>
@@ -4012,10 +4009,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_ty_by_drop</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_039_TY_BY_HHLManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4214,6 +4207,14 @@
   </si>
   <si>
     <t>hall_activity</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TYBYDROPManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4840,10 +4841,10 @@
   <dimension ref="A1:I320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C301" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
+      <selection pane="bottomRight" activeCell="D309" sqref="D309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6555,7 +6556,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C66" s="43" t="s">
         <v>194</v>
@@ -11274,13 +11275,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="31" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C254" s="32" t="s">
         <v>741</v>
       </c>
       <c r="D254" s="31" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E254" s="32">
         <v>0</v>
@@ -11356,7 +11357,7 @@
         <v>752</v>
       </c>
       <c r="C257" s="26" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D257" s="26" t="s">
         <v>753</v>
@@ -11371,7 +11372,7 @@
         <v>1</v>
       </c>
       <c r="I257" s="22" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11872,7 +11873,7 @@
       </c>
       <c r="H276" s="17"/>
       <c r="I276" s="29" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="16.5">
@@ -11906,7 +11907,7 @@
         <v>825</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D278" s="35" t="s">
         <v>826</v>
@@ -11922,7 +11923,7 @@
       </c>
       <c r="H278" s="15"/>
       <c r="I278" s="15" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -12554,10 +12555,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="28" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C303" s="26" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D303" s="27"/>
       <c r="E303" s="27">
@@ -12571,7 +12572,7 @@
       </c>
       <c r="H303" s="27"/>
       <c r="I303" s="26" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12609,7 +12610,7 @@
         <v>918</v>
       </c>
       <c r="C305" s="37" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D305" s="38" t="s">
         <v>919</v>
@@ -12632,13 +12633,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="28" t="s">
+        <v>945</v>
+      </c>
+      <c r="C306" s="26" t="s">
+        <v>950</v>
+      </c>
+      <c r="D306" s="28" t="s">
         <v>946</v>
-      </c>
-      <c r="C306" s="26" t="s">
-        <v>952</v>
-      </c>
-      <c r="D306" s="28" t="s">
-        <v>948</v>
       </c>
       <c r="E306" s="27">
         <v>1</v>
@@ -12651,7 +12652,7 @@
       </c>
       <c r="H306" s="27"/>
       <c r="I306" s="26" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12659,10 +12660,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="28" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C307" s="26" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D307" s="28" t="s">
         <v>921</v>
@@ -12678,7 +12679,7 @@
       </c>
       <c r="H307" s="27"/>
       <c r="I307" s="26" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
@@ -12686,13 +12687,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="30" t="s">
-        <v>947</v>
+        <v>981</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D308" s="30" t="s">
-        <v>922</v>
+        <v>982</v>
       </c>
       <c r="E308" s="32">
         <v>1</v>
@@ -12713,13 +12714,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C309" s="17" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12732,7 +12733,7 @@
       </c>
       <c r="H309" s="17"/>
       <c r="I309" s="19" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="16.5">
@@ -12740,13 +12741,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C310" s="15" t="s">
+        <v>930</v>
+      </c>
+      <c r="D310" s="18" t="s">
         <v>931</v>
-      </c>
-      <c r="D310" s="18" t="s">
-        <v>932</v>
       </c>
       <c r="E310" s="17">
         <v>0</v>
@@ -12759,7 +12760,7 @@
       </c>
       <c r="H310" s="17"/>
       <c r="I310" s="15" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="39" customFormat="1" ht="16.5">
@@ -12767,25 +12768,25 @@
         <v>310</v>
       </c>
       <c r="B311" s="38" t="s">
+        <v>939</v>
+      </c>
+      <c r="C311" s="37" t="s">
         <v>940</v>
       </c>
-      <c r="C311" s="37" t="s">
+      <c r="D311" s="38" t="s">
+        <v>938</v>
+      </c>
+      <c r="E311" s="39">
+        <v>1</v>
+      </c>
+      <c r="F311" s="39">
+        <v>1</v>
+      </c>
+      <c r="G311" s="39">
+        <v>1</v>
+      </c>
+      <c r="I311" s="37" t="s">
         <v>941</v>
-      </c>
-      <c r="D311" s="38" t="s">
-        <v>939</v>
-      </c>
-      <c r="E311" s="39">
-        <v>1</v>
-      </c>
-      <c r="F311" s="39">
-        <v>1</v>
-      </c>
-      <c r="G311" s="39">
-        <v>1</v>
-      </c>
-      <c r="I311" s="37" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16.5">
@@ -12793,13 +12794,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>942</v>
+      </c>
+      <c r="C312" s="15" t="s">
+        <v>944</v>
+      </c>
+      <c r="D312" s="18" t="s">
         <v>943</v>
-      </c>
-      <c r="C312" s="15" t="s">
-        <v>945</v>
-      </c>
-      <c r="D312" s="18" t="s">
-        <v>944</v>
       </c>
       <c r="E312" s="17">
         <v>1</v>
@@ -12812,7 +12813,7 @@
       </c>
       <c r="H312" s="17"/>
       <c r="I312" s="15" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12820,14 +12821,14 @@
         <v>312</v>
       </c>
       <c r="B313" s="18" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C313" s="15" t="s">
+        <v>947</v>
+      </c>
+      <c r="D313" s="18" t="s">
         <v>949</v>
       </c>
-      <c r="D313" s="18" t="s">
-        <v>951</v>
-      </c>
       <c r="E313" s="17">
         <v>1</v>
       </c>
@@ -12838,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="15" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12846,13 +12847,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="18" t="s">
+        <v>954</v>
+      </c>
+      <c r="C314" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="D314" s="18" t="s">
         <v>956</v>
-      </c>
-      <c r="C314" s="15" t="s">
-        <v>957</v>
-      </c>
-      <c r="D314" s="18" t="s">
-        <v>958</v>
       </c>
       <c r="E314" s="17">
         <v>0</v>
@@ -12869,25 +12870,25 @@
         <v>314</v>
       </c>
       <c r="B315" s="34" t="s">
+        <v>958</v>
+      </c>
+      <c r="C315" s="15" t="s">
         <v>960</v>
       </c>
-      <c r="C315" s="15" t="s">
+      <c r="D315" s="20" t="s">
+        <v>963</v>
+      </c>
+      <c r="E315" s="17">
+        <v>1</v>
+      </c>
+      <c r="F315" s="17">
+        <v>1</v>
+      </c>
+      <c r="G315" s="17">
+        <v>1</v>
+      </c>
+      <c r="I315" s="9" t="s">
         <v>962</v>
-      </c>
-      <c r="D315" s="20" t="s">
-        <v>965</v>
-      </c>
-      <c r="E315" s="17">
-        <v>1</v>
-      </c>
-      <c r="F315" s="17">
-        <v>1</v>
-      </c>
-      <c r="G315" s="17">
-        <v>1</v>
-      </c>
-      <c r="I315" s="9" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="17.25">
@@ -12895,13 +12896,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="34" t="s">
+        <v>959</v>
+      </c>
+      <c r="C316" s="15" t="s">
         <v>961</v>
       </c>
-      <c r="C316" s="15" t="s">
-        <v>963</v>
-      </c>
       <c r="D316" s="34" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E316" s="17">
         <v>1</v>
@@ -12921,13 +12922,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="28" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C317" s="26" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D317" s="28" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E317" s="27">
         <v>1</v>
@@ -12940,7 +12941,7 @@
       </c>
       <c r="H317" s="27"/>
       <c r="I317" s="41" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="17.25">
@@ -12948,13 +12949,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="42" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C318" s="26" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D318" s="42" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E318" s="27">
         <v>1</v>
@@ -12967,7 +12968,7 @@
       </c>
       <c r="H318" s="27"/>
       <c r="I318" s="26" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
@@ -12975,10 +12976,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="28" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C319" s="26" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D319" s="27"/>
       <c r="E319" s="27">
@@ -12992,7 +12993,7 @@
       </c>
       <c r="H319" s="27"/>
       <c r="I319" s="26" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
@@ -13000,10 +13001,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="28" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C320" s="26" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D320" s="27"/>
       <c r="E320" s="27">
@@ -13017,7 +13018,7 @@
       </c>
       <c r="H320" s="27"/>
       <c r="I320" s="26" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.26/game_module_config.xlsx
+++ b/config_1.26/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="987">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4005,10 +4005,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Act_039_TY_BY_HHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>通用活动--礼包模板（感恩礼包）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4220,6 +4216,20 @@
   </si>
   <si>
     <t>2月8号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_SJB_STYLE/ACT_001_HHLManager</t>
+  </si>
+  <si>
+    <t>Act_TY_SJB_STYLE/ACT_002_HHLManager</t>
+  </si>
+  <si>
+    <t>Act_TY_JZSJBManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4876,7 +4886,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C298" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A321" sqref="A321:XFD322"/>
+      <selection pane="bottomRight" activeCell="D307" sqref="D307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6588,7 +6598,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C66" s="41" t="s">
         <v>194</v>
@@ -11307,13 +11317,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="30" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C254" s="31" t="s">
         <v>741</v>
       </c>
       <c r="D254" s="30" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E254" s="31">
         <v>0</v>
@@ -12686,13 +12696,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="45" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C306" s="46" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D306" s="45" t="s">
-        <v>945</v>
+        <v>983</v>
       </c>
       <c r="E306" s="47">
         <v>1</v>
@@ -12705,7 +12715,7 @@
       </c>
       <c r="H306" s="47"/>
       <c r="I306" s="46" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="307" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12713,13 +12723,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="45" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C307" s="46" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D307" s="45" t="s">
-        <v>921</v>
+        <v>986</v>
       </c>
       <c r="E307" s="47">
         <v>1</v>
@@ -12732,7 +12742,7 @@
       </c>
       <c r="H307" s="47"/>
       <c r="I307" s="46" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="308" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12740,13 +12750,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="45" t="s">
+        <v>975</v>
+      </c>
+      <c r="C308" s="45" t="s">
+        <v>954</v>
+      </c>
+      <c r="D308" s="45" t="s">
         <v>976</v>
-      </c>
-      <c r="C308" s="45" t="s">
-        <v>955</v>
-      </c>
-      <c r="D308" s="45" t="s">
-        <v>977</v>
       </c>
       <c r="E308" s="47">
         <v>1</v>
@@ -12867,7 +12877,7 @@
       </c>
       <c r="H312" s="37"/>
       <c r="I312" s="35" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12875,13 +12885,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="36" t="s">
+        <v>946</v>
+      </c>
+      <c r="C313" s="35" t="s">
+        <v>945</v>
+      </c>
+      <c r="D313" s="36" t="s">
         <v>947</v>
-      </c>
-      <c r="C313" s="35" t="s">
-        <v>946</v>
-      </c>
-      <c r="D313" s="36" t="s">
-        <v>948</v>
       </c>
       <c r="E313" s="37">
         <v>1</v>
@@ -12894,7 +12904,7 @@
       </c>
       <c r="H313" s="37"/>
       <c r="I313" s="35" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12902,13 +12912,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="18" t="s">
+        <v>951</v>
+      </c>
+      <c r="C314" s="15" t="s">
         <v>952</v>
       </c>
-      <c r="C314" s="15" t="s">
+      <c r="D314" s="18" t="s">
         <v>953</v>
-      </c>
-      <c r="D314" s="18" t="s">
-        <v>954</v>
       </c>
       <c r="E314" s="17">
         <v>0</v>
@@ -12925,13 +12935,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="32" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C315" s="15" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D315" s="20" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E315" s="17">
         <v>1</v>
@@ -12943,7 +12953,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="9" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="17.25">
@@ -12951,13 +12961,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="32" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C316" s="15" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D316" s="32" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E316" s="17">
         <v>1</v>
@@ -12977,13 +12987,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="28" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C317" s="26" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D317" s="28" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E317" s="27">
         <v>1</v>
@@ -12996,7 +13006,7 @@
       </c>
       <c r="H317" s="27"/>
       <c r="I317" s="39" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="17.25">
@@ -13004,13 +13014,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="40" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C318" s="26" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D318" s="40" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E318" s="27">
         <v>1</v>
@@ -13023,7 +13033,7 @@
       </c>
       <c r="H318" s="27"/>
       <c r="I318" s="26" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
@@ -13031,10 +13041,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="50" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C319" s="51" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D319" s="49"/>
       <c r="E319" s="49">
@@ -13048,7 +13058,7 @@
       </c>
       <c r="H319" s="49"/>
       <c r="I319" s="51" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
@@ -13056,10 +13066,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="50" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C320" s="51" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D320" s="49"/>
       <c r="E320" s="49">
@@ -13073,7 +13083,7 @@
       </c>
       <c r="H320" s="49"/>
       <c r="I320" s="51" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
   </sheetData>
